--- a/SPINDLE/results/results.xlsx
+++ b/SPINDLE/results/results.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javig\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javig\Documents\Drive\DTU\MASTER THESIS\Code\EEG_scoring\SPINDLE\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C81120-33EE-46A2-A90C-BFEB76D7C654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BF3475-29CC-4A29-9AB7-2C4BD16E9D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{71AAEDCA-75DE-41E7-B5AF-A926B438C4C9}"/>
+    <workbookView xWindow="2160" yWindow="15630" windowWidth="20730" windowHeight="11160" xr2:uid="{71AAEDCA-75DE-41E7-B5AF-A926B438C4C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FINAL SPINDLE RESULTS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="36">
   <si>
     <t>Table 1: equal to table 2 in the SPINDLE paper (excluding aritfact epochs and evaluated in the scorers intersection)</t>
   </si>
@@ -135,6 +136,15 @@
   </si>
   <si>
     <t>Table 3: SPINDLE model trained on SPINDLE data, evaluated in test set of SPINDLE data (for both scorers) and in test set of Kornum data (the one I used before cleaning the data). The rows CNN1 and CNN1+HMM are with artifacts excluded (since in Kornum lab data we don't have stage labels for the artifacts)</t>
+  </si>
+  <si>
+    <t>Question: How does the SPINDLE model perform trained on Kornum? And how well does it generalize to SPINDLE dataset?</t>
+  </si>
+  <si>
+    <t>Table 3: SPINDLE model trained on KORNUM data, evaluated in test set of KORNUM and FULL COHORT A OF SPINDLE data (for both scorers). The rows CNN1 and CNN1+HMM are with artifacts excluded (since in Kornum lab data we don't have stage labels for the artifacts)</t>
+  </si>
+  <si>
+    <t>The CNN1 model selected is after 5 epochs</t>
   </si>
 </sst>
 </file>
@@ -299,15 +309,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -316,20 +322,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -338,8 +340,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -668,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3A6A14-A908-4BE5-8AFF-E961BF99BC3C}">
   <dimension ref="A2:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,272 +681,261 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="29" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8">
-        <v>99</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="B7" s="6">
+        <v>99</v>
+      </c>
+      <c r="C7" s="6">
         <v>100</v>
       </c>
-      <c r="D7" s="8">
-        <v>99</v>
-      </c>
-      <c r="E7" s="8">
-        <v>99</v>
-      </c>
-      <c r="F7" s="8">
-        <v>99</v>
-      </c>
-      <c r="G7" s="8">
-        <v>99</v>
-      </c>
-      <c r="H7" s="8">
-        <v>99</v>
-      </c>
-      <c r="I7" s="8">
-        <v>98</v>
-      </c>
-      <c r="J7" s="8">
-        <v>97</v>
-      </c>
-      <c r="K7" s="9">
+      <c r="D7" s="6">
+        <v>99</v>
+      </c>
+      <c r="E7" s="6">
+        <v>99</v>
+      </c>
+      <c r="F7" s="6">
+        <v>99</v>
+      </c>
+      <c r="G7" s="6">
+        <v>99</v>
+      </c>
+      <c r="H7" s="6">
+        <v>99</v>
+      </c>
+      <c r="I7" s="6">
+        <v>98</v>
+      </c>
+      <c r="J7" s="6">
+        <v>97</v>
+      </c>
+      <c r="K7" s="7">
         <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="14">
-        <v>98</v>
-      </c>
-      <c r="C8" s="14">
+      <c r="B8" s="10">
+        <v>98</v>
+      </c>
+      <c r="C8" s="10">
         <v>100</v>
       </c>
-      <c r="D8" s="14">
-        <v>98</v>
-      </c>
-      <c r="E8" s="14">
-        <v>99</v>
-      </c>
-      <c r="F8" s="14">
-        <v>99</v>
-      </c>
-      <c r="G8" s="14">
-        <v>98</v>
-      </c>
-      <c r="H8" s="14">
-        <v>98</v>
-      </c>
-      <c r="I8" s="14">
+      <c r="D8" s="10">
+        <v>98</v>
+      </c>
+      <c r="E8" s="10">
+        <v>99</v>
+      </c>
+      <c r="F8" s="10">
+        <v>99</v>
+      </c>
+      <c r="G8" s="10">
+        <v>98</v>
+      </c>
+      <c r="H8" s="10">
+        <v>98</v>
+      </c>
+      <c r="I8" s="10">
         <v>87</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="10">
         <v>100</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="11">
         <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="8">
-        <v>99</v>
-      </c>
-      <c r="C10" s="8">
+      <c r="B10" s="6">
+        <v>99</v>
+      </c>
+      <c r="C10" s="6">
         <v>100</v>
       </c>
-      <c r="D10" s="8">
-        <v>99</v>
-      </c>
-      <c r="E10" s="8">
-        <v>99</v>
-      </c>
-      <c r="F10" s="8">
-        <v>99</v>
-      </c>
-      <c r="G10" s="8">
-        <v>99</v>
-      </c>
-      <c r="H10" s="8">
-        <v>99</v>
-      </c>
-      <c r="I10" s="8">
-        <v>98</v>
-      </c>
-      <c r="J10" s="8">
-        <v>97</v>
-      </c>
-      <c r="K10" s="9">
+      <c r="D10" s="6">
+        <v>99</v>
+      </c>
+      <c r="E10" s="6">
+        <v>99</v>
+      </c>
+      <c r="F10" s="6">
+        <v>99</v>
+      </c>
+      <c r="G10" s="6">
+        <v>99</v>
+      </c>
+      <c r="H10" s="6">
+        <v>99</v>
+      </c>
+      <c r="I10" s="6">
+        <v>98</v>
+      </c>
+      <c r="J10" s="6">
+        <v>97</v>
+      </c>
+      <c r="K10" s="7">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="14">
-        <v>98</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="B11" s="10">
+        <v>98</v>
+      </c>
+      <c r="C11" s="10">
         <v>100</v>
       </c>
-      <c r="D11" s="14">
-        <v>97</v>
-      </c>
-      <c r="E11" s="14">
-        <v>98</v>
-      </c>
-      <c r="F11" s="14">
-        <v>97</v>
-      </c>
-      <c r="G11" s="14">
-        <v>98</v>
-      </c>
-      <c r="H11" s="14">
-        <v>98</v>
-      </c>
-      <c r="I11" s="14">
+      <c r="D11" s="10">
+        <v>97</v>
+      </c>
+      <c r="E11" s="10">
+        <v>98</v>
+      </c>
+      <c r="F11" s="10">
+        <v>97</v>
+      </c>
+      <c r="G11" s="10">
+        <v>98</v>
+      </c>
+      <c r="H11" s="10">
+        <v>98</v>
+      </c>
+      <c r="I11" s="10">
         <v>90</v>
       </c>
-      <c r="J11" s="14">
-        <v>99</v>
-      </c>
-      <c r="K11" s="15">
+      <c r="J11" s="10">
+        <v>99</v>
+      </c>
+      <c r="K11" s="11">
         <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-    </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
       <c r="P23" s="1"/>
@@ -960,393 +949,393 @@
       <c r="X23" s="1"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
+      <c r="A24" s="3"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29" t="s">
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29" t="s">
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
-      <c r="C28" s="4" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="6">
         <v>100</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="6">
         <v>95</v>
       </c>
-      <c r="E29" s="8">
-        <v>98</v>
-      </c>
-      <c r="F29" s="8">
-        <v>96</v>
-      </c>
-      <c r="G29" s="8">
-        <v>97</v>
-      </c>
-      <c r="H29" s="8">
-        <v>97</v>
-      </c>
-      <c r="I29" s="8">
-        <v>96</v>
-      </c>
-      <c r="J29" s="8">
-        <v>96</v>
-      </c>
-      <c r="K29" s="9">
+      <c r="E29" s="6">
+        <v>98</v>
+      </c>
+      <c r="F29" s="6">
+        <v>96</v>
+      </c>
+      <c r="G29" s="6">
+        <v>97</v>
+      </c>
+      <c r="H29" s="6">
+        <v>97</v>
+      </c>
+      <c r="I29" s="6">
+        <v>96</v>
+      </c>
+      <c r="J29" s="6">
+        <v>96</v>
+      </c>
+      <c r="K29" s="7">
         <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="19"/>
+      <c r="B30" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="11">
-        <v>96</v>
-      </c>
-      <c r="D30" s="11">
-        <v>98</v>
-      </c>
-      <c r="E30" s="11">
-        <v>97</v>
-      </c>
-      <c r="F30" s="11">
-        <v>98</v>
-      </c>
-      <c r="G30" s="11">
+      <c r="C30">
+        <v>96</v>
+      </c>
+      <c r="D30">
+        <v>98</v>
+      </c>
+      <c r="E30">
+        <v>97</v>
+      </c>
+      <c r="F30">
+        <v>98</v>
+      </c>
+      <c r="G30">
         <v>93</v>
       </c>
-      <c r="H30" s="11">
-        <v>96</v>
-      </c>
-      <c r="I30" s="11">
+      <c r="H30">
+        <v>96</v>
+      </c>
+      <c r="I30">
         <v>94</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30">
         <v>93</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K30" s="8">
         <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="13" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="10">
         <v>86</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="10">
         <v>100</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="10">
         <v>92</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="10">
         <v>78</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="10">
         <v>100</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="10">
         <v>87</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31" s="10">
         <v>77</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J31" s="10">
         <v>84</v>
       </c>
-      <c r="K31" s="15">
+      <c r="K31" s="11">
         <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="6">
         <v>100</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="6">
         <v>94</v>
       </c>
-      <c r="E32" s="8">
-        <v>97</v>
-      </c>
-      <c r="F32" s="8">
-        <v>98</v>
-      </c>
-      <c r="G32" s="8">
+      <c r="E32" s="6">
+        <v>97</v>
+      </c>
+      <c r="F32" s="6">
+        <v>98</v>
+      </c>
+      <c r="G32" s="6">
         <v>95</v>
       </c>
-      <c r="H32" s="8">
-        <v>97</v>
-      </c>
-      <c r="I32" s="8">
-        <v>96</v>
-      </c>
-      <c r="J32" s="8">
-        <v>96</v>
-      </c>
-      <c r="K32" s="9">
+      <c r="H32" s="6">
+        <v>97</v>
+      </c>
+      <c r="I32" s="6">
+        <v>96</v>
+      </c>
+      <c r="J32" s="6">
+        <v>96</v>
+      </c>
+      <c r="K32" s="7">
         <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="10" t="s">
+      <c r="A33" s="19"/>
+      <c r="B33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33">
         <v>94</v>
       </c>
-      <c r="D33" s="11">
-        <v>98</v>
-      </c>
-      <c r="E33" s="11">
-        <v>96</v>
-      </c>
-      <c r="F33" s="11">
-        <v>97</v>
-      </c>
-      <c r="G33" s="11">
-        <v>96</v>
-      </c>
-      <c r="H33" s="11">
-        <v>96</v>
-      </c>
-      <c r="I33" s="11">
+      <c r="D33">
+        <v>98</v>
+      </c>
+      <c r="E33">
+        <v>96</v>
+      </c>
+      <c r="F33">
+        <v>97</v>
+      </c>
+      <c r="G33">
+        <v>96</v>
+      </c>
+      <c r="H33">
+        <v>96</v>
+      </c>
+      <c r="I33">
         <v>94</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J33">
         <v>94</v>
       </c>
-      <c r="K33" s="12">
+      <c r="K33" s="8">
         <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="13" t="s">
+      <c r="A34" s="20"/>
+      <c r="B34" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="10">
         <v>89</v>
       </c>
-      <c r="D34" s="14">
-        <v>99</v>
-      </c>
-      <c r="E34" s="14">
+      <c r="D34" s="10">
+        <v>99</v>
+      </c>
+      <c r="E34" s="10">
         <v>94</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="10">
         <v>81</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="10">
         <v>100</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="10">
         <v>89</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="10">
         <v>85</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J34" s="10">
         <v>84</v>
       </c>
-      <c r="K34" s="15">
+      <c r="K34" s="11">
         <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="6">
         <v>45</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="6">
         <v>68</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="6">
         <v>54</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="6">
         <v>29</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="6">
         <v>78</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="6">
         <v>42</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="6">
         <v>1</v>
       </c>
-      <c r="J35" s="8">
+      <c r="J35" s="6">
         <v>68</v>
       </c>
-      <c r="K35" s="17">
+      <c r="K35" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="10" t="s">
+      <c r="A36" s="19"/>
+      <c r="B36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="11">
-        <v>99</v>
-      </c>
-      <c r="D36" s="11">
+      <c r="C36">
+        <v>99</v>
+      </c>
+      <c r="D36">
         <v>93</v>
       </c>
-      <c r="E36" s="11">
-        <v>96</v>
-      </c>
-      <c r="F36" s="24">
-        <v>98</v>
-      </c>
-      <c r="G36" s="25">
-        <v>96</v>
-      </c>
-      <c r="H36" s="25">
-        <v>97</v>
-      </c>
-      <c r="I36" s="25">
+      <c r="E36">
+        <v>96</v>
+      </c>
+      <c r="F36">
+        <v>98</v>
+      </c>
+      <c r="G36">
+        <v>96</v>
+      </c>
+      <c r="H36">
+        <v>97</v>
+      </c>
+      <c r="I36">
         <v>95</v>
       </c>
-      <c r="J36" s="25">
+      <c r="J36">
         <v>95</v>
       </c>
-      <c r="K36" s="18">
+      <c r="K36" s="13">
         <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="10" t="s">
+      <c r="A37" s="19"/>
+      <c r="B37" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="11">
-        <v>97</v>
-      </c>
-      <c r="D37" s="11">
-        <v>97</v>
-      </c>
-      <c r="E37" s="11">
-        <v>97</v>
-      </c>
-      <c r="F37" s="24">
-        <v>99</v>
-      </c>
-      <c r="G37" s="25">
+      <c r="C37">
+        <v>97</v>
+      </c>
+      <c r="D37">
+        <v>97</v>
+      </c>
+      <c r="E37">
+        <v>97</v>
+      </c>
+      <c r="F37">
+        <v>99</v>
+      </c>
+      <c r="G37">
         <v>94</v>
       </c>
-      <c r="H37" s="25">
-        <v>96</v>
-      </c>
-      <c r="I37" s="25">
+      <c r="H37">
+        <v>96</v>
+      </c>
+      <c r="I37">
         <v>95</v>
       </c>
-      <c r="J37" s="25">
+      <c r="J37">
         <v>95</v>
       </c>
-      <c r="K37" s="18">
+      <c r="K37" s="13">
         <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="13" t="s">
+      <c r="A38" s="20"/>
+      <c r="B38" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="10">
         <v>84</v>
       </c>
-      <c r="D38" s="14">
-        <v>99</v>
-      </c>
-      <c r="E38" s="14">
+      <c r="D38" s="10">
+        <v>99</v>
+      </c>
+      <c r="E38" s="10">
         <v>90</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="10">
         <v>76</v>
       </c>
-      <c r="G38" s="19">
-        <v>99</v>
-      </c>
-      <c r="H38" s="14">
+      <c r="G38" s="10">
+        <v>99</v>
+      </c>
+      <c r="H38" s="10">
         <v>86</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I38" s="10">
         <v>85</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J38" s="10">
         <v>85</v>
       </c>
-      <c r="K38" s="20">
+      <c r="K38" s="14">
         <v>85</v>
       </c>
     </row>
@@ -1364,4 +1353,428 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0DFC5B-BBC4-4BC7-A567-574FDE353CCC}">
+  <dimension ref="A2:K18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C7" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6">
+        <v>100</v>
+      </c>
+      <c r="D9" s="6">
+        <v>95</v>
+      </c>
+      <c r="E9" s="6">
+        <v>98</v>
+      </c>
+      <c r="F9" s="6">
+        <v>96</v>
+      </c>
+      <c r="G9" s="6">
+        <v>97</v>
+      </c>
+      <c r="H9" s="6">
+        <v>97</v>
+      </c>
+      <c r="I9" s="6">
+        <v>96</v>
+      </c>
+      <c r="J9" s="6">
+        <v>96</v>
+      </c>
+      <c r="K9" s="7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>96</v>
+      </c>
+      <c r="D10">
+        <v>98</v>
+      </c>
+      <c r="E10">
+        <v>97</v>
+      </c>
+      <c r="F10">
+        <v>98</v>
+      </c>
+      <c r="G10">
+        <v>93</v>
+      </c>
+      <c r="H10">
+        <v>96</v>
+      </c>
+      <c r="I10">
+        <v>94</v>
+      </c>
+      <c r="J10">
+        <v>93</v>
+      </c>
+      <c r="K10" s="8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="10">
+        <v>86</v>
+      </c>
+      <c r="D11" s="10">
+        <v>100</v>
+      </c>
+      <c r="E11" s="10">
+        <v>92</v>
+      </c>
+      <c r="F11" s="10">
+        <v>78</v>
+      </c>
+      <c r="G11" s="10">
+        <v>100</v>
+      </c>
+      <c r="H11" s="10">
+        <v>87</v>
+      </c>
+      <c r="I11" s="10">
+        <v>77</v>
+      </c>
+      <c r="J11" s="10">
+        <v>84</v>
+      </c>
+      <c r="K11" s="11">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6">
+        <v>100</v>
+      </c>
+      <c r="D12" s="6">
+        <v>94</v>
+      </c>
+      <c r="E12" s="6">
+        <v>97</v>
+      </c>
+      <c r="F12" s="6">
+        <v>98</v>
+      </c>
+      <c r="G12" s="6">
+        <v>95</v>
+      </c>
+      <c r="H12" s="6">
+        <v>97</v>
+      </c>
+      <c r="I12" s="6">
+        <v>96</v>
+      </c>
+      <c r="J12" s="6">
+        <v>96</v>
+      </c>
+      <c r="K12" s="7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>94</v>
+      </c>
+      <c r="D13">
+        <v>98</v>
+      </c>
+      <c r="E13">
+        <v>96</v>
+      </c>
+      <c r="F13">
+        <v>97</v>
+      </c>
+      <c r="G13">
+        <v>96</v>
+      </c>
+      <c r="H13">
+        <v>96</v>
+      </c>
+      <c r="I13">
+        <v>94</v>
+      </c>
+      <c r="J13">
+        <v>94</v>
+      </c>
+      <c r="K13" s="8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="10">
+        <v>89</v>
+      </c>
+      <c r="D14" s="10">
+        <v>99</v>
+      </c>
+      <c r="E14" s="10">
+        <v>94</v>
+      </c>
+      <c r="F14" s="10">
+        <v>81</v>
+      </c>
+      <c r="G14" s="10">
+        <v>100</v>
+      </c>
+      <c r="H14" s="10">
+        <v>89</v>
+      </c>
+      <c r="I14" s="10">
+        <v>85</v>
+      </c>
+      <c r="J14" s="10">
+        <v>84</v>
+      </c>
+      <c r="K14" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="6">
+        <v>45</v>
+      </c>
+      <c r="D15" s="6">
+        <v>68</v>
+      </c>
+      <c r="E15" s="6">
+        <v>54</v>
+      </c>
+      <c r="F15" s="6">
+        <v>29</v>
+      </c>
+      <c r="G15" s="6">
+        <v>78</v>
+      </c>
+      <c r="H15" s="6">
+        <v>42</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6">
+        <v>68</v>
+      </c>
+      <c r="K15" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>99</v>
+      </c>
+      <c r="D16">
+        <v>93</v>
+      </c>
+      <c r="E16">
+        <v>96</v>
+      </c>
+      <c r="F16">
+        <v>98</v>
+      </c>
+      <c r="G16">
+        <v>96</v>
+      </c>
+      <c r="H16">
+        <v>97</v>
+      </c>
+      <c r="I16">
+        <v>95</v>
+      </c>
+      <c r="J16">
+        <v>95</v>
+      </c>
+      <c r="K16" s="13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>97</v>
+      </c>
+      <c r="D17">
+        <v>97</v>
+      </c>
+      <c r="E17">
+        <v>97</v>
+      </c>
+      <c r="F17">
+        <v>99</v>
+      </c>
+      <c r="G17">
+        <v>94</v>
+      </c>
+      <c r="H17">
+        <v>96</v>
+      </c>
+      <c r="I17">
+        <v>95</v>
+      </c>
+      <c r="J17">
+        <v>95</v>
+      </c>
+      <c r="K17" s="13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="10">
+        <v>84</v>
+      </c>
+      <c r="D18" s="10">
+        <v>99</v>
+      </c>
+      <c r="E18" s="10">
+        <v>90</v>
+      </c>
+      <c r="F18" s="10">
+        <v>76</v>
+      </c>
+      <c r="G18" s="10">
+        <v>99</v>
+      </c>
+      <c r="H18" s="10">
+        <v>86</v>
+      </c>
+      <c r="I18" s="10">
+        <v>85</v>
+      </c>
+      <c r="J18" s="10">
+        <v>85</v>
+      </c>
+      <c r="K18" s="14">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SPINDLE/results/results.xlsx
+++ b/SPINDLE/results/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javig\Documents\Drive\DTU\MASTER THESIS\Code\EEG_scoring\SPINDLE\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB889F4-7CEA-4438-BD18-FC99FB8A2CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6217F7-4547-4781-B36C-359B42B41666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{71AAEDCA-75DE-41E7-B5AF-A926B438C4C9}"/>
   </bookViews>
@@ -783,6 +783,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -810,6 +834,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -860,48 +902,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1231,7 +1231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3A6A14-A908-4BE5-8AFF-E961BF99BC3C}">
   <dimension ref="A2:Z113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -1254,38 +1254,38 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N4" s="51" t="s">
+      <c r="N4" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="53"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="61"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77" t="s">
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77" t="s">
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="56"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="64"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1321,12 +1321,12 @@
       <c r="K6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="54"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="56"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="64"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
@@ -1362,12 +1362,12 @@
       <c r="K7" s="37">
         <v>98</v>
       </c>
-      <c r="N7" s="54"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="56"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="64"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
@@ -1403,12 +1403,12 @@
       <c r="K8" s="41">
         <v>93</v>
       </c>
-      <c r="N8" s="54"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="56"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="64"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -1424,12 +1424,12 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="56"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="64"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -1465,12 +1465,12 @@
       <c r="K10" s="37">
         <v>98</v>
       </c>
-      <c r="N10" s="54"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="56"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="64"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
@@ -1506,33 +1506,33 @@
       <c r="K11" s="41">
         <v>94</v>
       </c>
-      <c r="N11" s="57"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="59"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="67"/>
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N14" s="60" t="s">
+      <c r="N14" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="O14" s="69"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="69"/>
-      <c r="S14" s="70"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="84"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N15" s="71"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="73"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="86"/>
+      <c r="S15" s="87"/>
     </row>
     <row r="16" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
@@ -1541,12 +1541,12 @@
       <c r="C16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N16" s="71"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="73"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="86"/>
+      <c r="Q16" s="86"/>
+      <c r="R16" s="86"/>
+      <c r="S16" s="87"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -1558,12 +1558,12 @@
       <c r="C17" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="71"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="73"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="86"/>
+      <c r="S17" s="87"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -1575,12 +1575,12 @@
       <c r="C18" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="71"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="73"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="86"/>
+      <c r="Q18" s="86"/>
+      <c r="R18" s="86"/>
+      <c r="S18" s="87"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -1592,12 +1592,12 @@
       <c r="C19" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="N19" s="74"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="75"/>
-      <c r="Q19" s="75"/>
-      <c r="R19" s="75"/>
-      <c r="S19" s="76"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="89"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="90"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="N20" s="50"/>
@@ -1658,36 +1658,36 @@
       </c>
     </row>
     <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="77" t="s">
+      <c r="C31" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77" t="s">
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77" t="s">
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="77"/>
-      <c r="P31" s="51" t="s">
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="P31" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="Q31" s="61"/>
-      <c r="R31" s="61"/>
-      <c r="S31" s="61"/>
-      <c r="T31" s="61"/>
-      <c r="U31" s="61"/>
-      <c r="V31" s="61"/>
-      <c r="W31" s="61"/>
-      <c r="X31" s="61"/>
-      <c r="Y31" s="62"/>
+      <c r="Q31" s="75"/>
+      <c r="R31" s="75"/>
+      <c r="S31" s="75"/>
+      <c r="T31" s="75"/>
+      <c r="U31" s="75"/>
+      <c r="V31" s="75"/>
+      <c r="W31" s="75"/>
+      <c r="X31" s="75"/>
+      <c r="Y31" s="76"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
@@ -1727,25 +1727,25 @@
       <c r="N32" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="P32" s="63"/>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="64"/>
-      <c r="S32" s="64"/>
-      <c r="T32" s="64"/>
-      <c r="U32" s="64"/>
-      <c r="V32" s="64"/>
-      <c r="W32" s="64"/>
-      <c r="X32" s="64"/>
-      <c r="Y32" s="65"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="78"/>
+      <c r="R32" s="78"/>
+      <c r="S32" s="78"/>
+      <c r="T32" s="78"/>
+      <c r="U32" s="78"/>
+      <c r="V32" s="78"/>
+      <c r="W32" s="78"/>
+      <c r="X32" s="78"/>
+      <c r="Y32" s="79"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="81" t="s">
+      <c r="A33" s="68" t="s">
         <v>28</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="78">
+      <c r="C33" s="73">
         <v>0.95199999999999996</v>
       </c>
       <c r="D33" s="26">
@@ -1757,7 +1757,7 @@
       <c r="F33" s="27">
         <v>0.97699999999999998</v>
       </c>
-      <c r="G33" s="78">
+      <c r="G33" s="73">
         <v>0.95199999999999996</v>
       </c>
       <c r="H33" s="26">
@@ -1769,7 +1769,7 @@
       <c r="J33" s="27">
         <v>0.96799999999999997</v>
       </c>
-      <c r="K33" s="78">
+      <c r="K33" s="73">
         <v>0.94599999999999995</v>
       </c>
       <c r="L33" s="26">
@@ -1781,23 +1781,23 @@
       <c r="N33" s="27">
         <v>0.96699999999999997</v>
       </c>
-      <c r="P33" s="63"/>
-      <c r="Q33" s="64"/>
-      <c r="R33" s="64"/>
-      <c r="S33" s="64"/>
-      <c r="T33" s="64"/>
-      <c r="U33" s="64"/>
-      <c r="V33" s="64"/>
-      <c r="W33" s="64"/>
-      <c r="X33" s="64"/>
-      <c r="Y33" s="65"/>
+      <c r="P33" s="77"/>
+      <c r="Q33" s="78"/>
+      <c r="R33" s="78"/>
+      <c r="S33" s="78"/>
+      <c r="T33" s="78"/>
+      <c r="U33" s="78"/>
+      <c r="V33" s="78"/>
+      <c r="W33" s="78"/>
+      <c r="X33" s="78"/>
+      <c r="Y33" s="79"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="82"/>
+      <c r="A34" s="69"/>
       <c r="B34" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="79"/>
+      <c r="C34" s="71"/>
       <c r="D34" s="28">
         <v>0.94599999999999995</v>
       </c>
@@ -1807,7 +1807,7 @@
       <c r="F34" s="29">
         <v>0.94199999999999995</v>
       </c>
-      <c r="G34" s="79"/>
+      <c r="G34" s="71"/>
       <c r="H34" s="28">
         <v>0.94099999999999995</v>
       </c>
@@ -1817,7 +1817,7 @@
       <c r="J34" s="29">
         <v>0.95099999999999996</v>
       </c>
-      <c r="K34" s="79"/>
+      <c r="K34" s="71"/>
       <c r="L34" s="28">
         <v>0.97399999999999998</v>
       </c>
@@ -1827,23 +1827,23 @@
       <c r="N34" s="29">
         <v>0.94899999999999995</v>
       </c>
-      <c r="P34" s="63"/>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="64"/>
-      <c r="S34" s="64"/>
-      <c r="T34" s="64"/>
-      <c r="U34" s="64"/>
-      <c r="V34" s="64"/>
-      <c r="W34" s="64"/>
-      <c r="X34" s="64"/>
-      <c r="Y34" s="65"/>
+      <c r="P34" s="77"/>
+      <c r="Q34" s="78"/>
+      <c r="R34" s="78"/>
+      <c r="S34" s="78"/>
+      <c r="T34" s="78"/>
+      <c r="U34" s="78"/>
+      <c r="V34" s="78"/>
+      <c r="W34" s="78"/>
+      <c r="X34" s="78"/>
+      <c r="Y34" s="79"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="83"/>
+      <c r="A35" s="70"/>
       <c r="B35" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="80"/>
+      <c r="C35" s="72"/>
       <c r="D35" s="30">
         <v>0.76</v>
       </c>
@@ -1853,7 +1853,7 @@
       <c r="F35" s="31">
         <v>0.83199999999999996</v>
       </c>
-      <c r="G35" s="80"/>
+      <c r="G35" s="72"/>
       <c r="H35" s="30">
         <v>0.77500000000000002</v>
       </c>
@@ -1863,7 +1863,7 @@
       <c r="J35" s="31">
         <v>0.86</v>
       </c>
-      <c r="K35" s="80"/>
+      <c r="K35" s="72"/>
       <c r="L35" s="30">
         <v>0.69399999999999995</v>
       </c>
@@ -1873,25 +1873,25 @@
       <c r="N35" s="31">
         <v>0.81200000000000006</v>
       </c>
-      <c r="P35" s="63"/>
-      <c r="Q35" s="64"/>
-      <c r="R35" s="64"/>
-      <c r="S35" s="64"/>
-      <c r="T35" s="64"/>
-      <c r="U35" s="64"/>
-      <c r="V35" s="64"/>
-      <c r="W35" s="64"/>
-      <c r="X35" s="64"/>
-      <c r="Y35" s="65"/>
+      <c r="P35" s="77"/>
+      <c r="Q35" s="78"/>
+      <c r="R35" s="78"/>
+      <c r="S35" s="78"/>
+      <c r="T35" s="78"/>
+      <c r="U35" s="78"/>
+      <c r="V35" s="78"/>
+      <c r="W35" s="78"/>
+      <c r="X35" s="78"/>
+      <c r="Y35" s="79"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="68" t="s">
         <v>29</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="78">
+      <c r="C36" s="73">
         <v>0.95399999999999996</v>
       </c>
       <c r="D36" s="26">
@@ -1903,7 +1903,7 @@
       <c r="F36" s="27">
         <v>0.97099999999999997</v>
       </c>
-      <c r="G36" s="78">
+      <c r="G36" s="73">
         <v>0.95199999999999996</v>
       </c>
       <c r="H36" s="26">
@@ -1915,7 +1915,7 @@
       <c r="J36" s="27">
         <v>0.96299999999999997</v>
       </c>
-      <c r="K36" s="78">
+      <c r="K36" s="73">
         <v>0.95199999999999996</v>
       </c>
       <c r="L36" s="26">
@@ -1927,23 +1927,23 @@
       <c r="N36" s="27">
         <v>0.96299999999999997</v>
       </c>
-      <c r="P36" s="63"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="64"/>
-      <c r="S36" s="64"/>
-      <c r="T36" s="64"/>
-      <c r="U36" s="64"/>
-      <c r="V36" s="64"/>
-      <c r="W36" s="64"/>
-      <c r="X36" s="64"/>
-      <c r="Y36" s="65"/>
+      <c r="P36" s="77"/>
+      <c r="Q36" s="78"/>
+      <c r="R36" s="78"/>
+      <c r="S36" s="78"/>
+      <c r="T36" s="78"/>
+      <c r="U36" s="78"/>
+      <c r="V36" s="78"/>
+      <c r="W36" s="78"/>
+      <c r="X36" s="78"/>
+      <c r="Y36" s="79"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="82"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="79"/>
+      <c r="C37" s="71"/>
       <c r="D37" s="28">
         <v>0.92900000000000005</v>
       </c>
@@ -1953,7 +1953,7 @@
       <c r="F37" s="29">
         <v>0.94299999999999995</v>
       </c>
-      <c r="G37" s="79"/>
+      <c r="G37" s="71"/>
       <c r="H37" s="28">
         <v>0.91900000000000004</v>
       </c>
@@ -1963,7 +1963,7 @@
       <c r="J37" s="29">
         <v>0.94599999999999995</v>
       </c>
-      <c r="K37" s="79"/>
+      <c r="K37" s="71"/>
       <c r="L37" s="28">
         <v>0.95499999999999996</v>
       </c>
@@ -1973,23 +1973,23 @@
       <c r="N37" s="29">
         <v>0.95399999999999996</v>
       </c>
-      <c r="P37" s="63"/>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="64"/>
-      <c r="T37" s="64"/>
-      <c r="U37" s="64"/>
-      <c r="V37" s="64"/>
-      <c r="W37" s="64"/>
-      <c r="X37" s="64"/>
-      <c r="Y37" s="65"/>
+      <c r="P37" s="77"/>
+      <c r="Q37" s="78"/>
+      <c r="R37" s="78"/>
+      <c r="S37" s="78"/>
+      <c r="T37" s="78"/>
+      <c r="U37" s="78"/>
+      <c r="V37" s="78"/>
+      <c r="W37" s="78"/>
+      <c r="X37" s="78"/>
+      <c r="Y37" s="79"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="83"/>
+      <c r="A38" s="70"/>
       <c r="B38" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="80"/>
+      <c r="C38" s="72"/>
       <c r="D38" s="30">
         <v>0.82799999999999996</v>
       </c>
@@ -1999,7 +1999,7 @@
       <c r="F38" s="31">
         <v>0.86399999999999999</v>
       </c>
-      <c r="G38" s="80"/>
+      <c r="G38" s="72"/>
       <c r="H38" s="30">
         <v>0.86699999999999999</v>
       </c>
@@ -2009,7 +2009,7 @@
       <c r="J38" s="31">
         <v>0.90800000000000003</v>
       </c>
-      <c r="K38" s="80"/>
+      <c r="K38" s="72"/>
       <c r="L38" s="30">
         <v>0.78600000000000003</v>
       </c>
@@ -2019,25 +2019,25 @@
       <c r="N38" s="31">
         <v>0.86899999999999999</v>
       </c>
-      <c r="P38" s="63"/>
-      <c r="Q38" s="64"/>
-      <c r="R38" s="64"/>
-      <c r="S38" s="64"/>
-      <c r="T38" s="64"/>
-      <c r="U38" s="64"/>
-      <c r="V38" s="64"/>
-      <c r="W38" s="64"/>
-      <c r="X38" s="64"/>
-      <c r="Y38" s="65"/>
+      <c r="P38" s="77"/>
+      <c r="Q38" s="78"/>
+      <c r="R38" s="78"/>
+      <c r="S38" s="78"/>
+      <c r="T38" s="78"/>
+      <c r="U38" s="78"/>
+      <c r="V38" s="78"/>
+      <c r="W38" s="78"/>
+      <c r="X38" s="78"/>
+      <c r="Y38" s="79"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A39" s="81" t="s">
+      <c r="A39" s="68" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="79">
+      <c r="C39" s="71">
         <v>0.92200000000000004</v>
       </c>
       <c r="D39" s="28">
@@ -2049,7 +2049,7 @@
       <c r="F39" s="29">
         <v>0.11899999999999999</v>
       </c>
-      <c r="G39" s="79">
+      <c r="G39" s="71">
         <v>0.78600000000000003</v>
       </c>
       <c r="H39" s="28">
@@ -2061,7 +2061,7 @@
       <c r="J39" s="29">
         <v>0.27</v>
       </c>
-      <c r="K39" s="79">
+      <c r="K39" s="71">
         <v>0.84</v>
       </c>
       <c r="L39" s="28">
@@ -2073,23 +2073,23 @@
       <c r="N39" s="32">
         <v>0.379</v>
       </c>
-      <c r="P39" s="63"/>
-      <c r="Q39" s="64"/>
-      <c r="R39" s="64"/>
-      <c r="S39" s="64"/>
-      <c r="T39" s="64"/>
-      <c r="U39" s="64"/>
-      <c r="V39" s="64"/>
-      <c r="W39" s="64"/>
-      <c r="X39" s="64"/>
-      <c r="Y39" s="65"/>
+      <c r="P39" s="77"/>
+      <c r="Q39" s="78"/>
+      <c r="R39" s="78"/>
+      <c r="S39" s="78"/>
+      <c r="T39" s="78"/>
+      <c r="U39" s="78"/>
+      <c r="V39" s="78"/>
+      <c r="W39" s="78"/>
+      <c r="X39" s="78"/>
+      <c r="Y39" s="79"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" s="82"/>
+      <c r="A40" s="69"/>
       <c r="B40" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="79"/>
+      <c r="C40" s="71"/>
       <c r="D40" s="28">
         <v>0.98499999999999999</v>
       </c>
@@ -2099,7 +2099,7 @@
       <c r="F40" s="29">
         <v>0.94199999999999995</v>
       </c>
-      <c r="G40" s="79"/>
+      <c r="G40" s="71"/>
       <c r="H40" s="28">
         <v>0.84699999999999998</v>
       </c>
@@ -2109,7 +2109,7 @@
       <c r="J40" s="29">
         <v>0.85599999999999998</v>
       </c>
-      <c r="K40" s="79"/>
+      <c r="K40" s="71"/>
       <c r="L40" s="28">
         <v>0.79600000000000004</v>
       </c>
@@ -2119,23 +2119,23 @@
       <c r="N40" s="32">
         <v>0.83799999999999997</v>
       </c>
-      <c r="P40" s="63"/>
-      <c r="Q40" s="64"/>
-      <c r="R40" s="64"/>
-      <c r="S40" s="64"/>
-      <c r="T40" s="64"/>
-      <c r="U40" s="64"/>
-      <c r="V40" s="64"/>
-      <c r="W40" s="64"/>
-      <c r="X40" s="64"/>
-      <c r="Y40" s="65"/>
+      <c r="P40" s="77"/>
+      <c r="Q40" s="78"/>
+      <c r="R40" s="78"/>
+      <c r="S40" s="78"/>
+      <c r="T40" s="78"/>
+      <c r="U40" s="78"/>
+      <c r="V40" s="78"/>
+      <c r="W40" s="78"/>
+      <c r="X40" s="78"/>
+      <c r="Y40" s="79"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" s="82"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="79"/>
+      <c r="C41" s="71"/>
       <c r="D41" s="28">
         <v>0.92900000000000005</v>
       </c>
@@ -2145,7 +2145,7 @@
       <c r="F41" s="29">
         <v>0.94199999999999995</v>
       </c>
-      <c r="G41" s="79"/>
+      <c r="G41" s="71"/>
       <c r="H41" s="28">
         <v>0.77100000000000002</v>
       </c>
@@ -2155,7 +2155,7 @@
       <c r="J41" s="29">
         <v>0.86099999999999999</v>
       </c>
-      <c r="K41" s="79"/>
+      <c r="K41" s="71"/>
       <c r="L41" s="28">
         <v>0.94899999999999995</v>
       </c>
@@ -2165,23 +2165,23 @@
       <c r="N41" s="32">
         <v>0.94899999999999995</v>
       </c>
-      <c r="P41" s="63"/>
-      <c r="Q41" s="64"/>
-      <c r="R41" s="64"/>
-      <c r="S41" s="64"/>
-      <c r="T41" s="64"/>
-      <c r="U41" s="64"/>
-      <c r="V41" s="64"/>
-      <c r="W41" s="64"/>
-      <c r="X41" s="64"/>
-      <c r="Y41" s="65"/>
+      <c r="P41" s="77"/>
+      <c r="Q41" s="78"/>
+      <c r="R41" s="78"/>
+      <c r="S41" s="78"/>
+      <c r="T41" s="78"/>
+      <c r="U41" s="78"/>
+      <c r="V41" s="78"/>
+      <c r="W41" s="78"/>
+      <c r="X41" s="78"/>
+      <c r="Y41" s="79"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="83"/>
+      <c r="A42" s="70"/>
       <c r="B42" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="80"/>
+      <c r="C42" s="72"/>
       <c r="D42" s="30">
         <v>0.82699999999999996</v>
       </c>
@@ -2191,7 +2191,7 @@
       <c r="F42" s="31">
         <v>0.86199999999999999</v>
       </c>
-      <c r="G42" s="80"/>
+      <c r="G42" s="72"/>
       <c r="H42" s="30">
         <v>0.748</v>
       </c>
@@ -2201,7 +2201,7 @@
       <c r="J42" s="31">
         <v>0.83699999999999997</v>
       </c>
-      <c r="K42" s="80"/>
+      <c r="K42" s="72"/>
       <c r="L42" s="30">
         <v>0.746</v>
       </c>
@@ -2211,16 +2211,16 @@
       <c r="N42" s="33">
         <v>0.83799999999999997</v>
       </c>
-      <c r="P42" s="66"/>
-      <c r="Q42" s="67"/>
-      <c r="R42" s="67"/>
-      <c r="S42" s="67"/>
-      <c r="T42" s="67"/>
-      <c r="U42" s="67"/>
-      <c r="V42" s="67"/>
-      <c r="W42" s="67"/>
-      <c r="X42" s="67"/>
-      <c r="Y42" s="68"/>
+      <c r="P42" s="80"/>
+      <c r="Q42" s="81"/>
+      <c r="R42" s="81"/>
+      <c r="S42" s="81"/>
+      <c r="T42" s="81"/>
+      <c r="U42" s="81"/>
+      <c r="V42" s="81"/>
+      <c r="W42" s="81"/>
+      <c r="X42" s="81"/>
+      <c r="Y42" s="82"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
@@ -2243,34 +2243,34 @@
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C49" s="77" t="s">
+      <c r="C49" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="77" t="s">
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H49" s="77"/>
-      <c r="I49" s="77"/>
-      <c r="J49" s="77"/>
-      <c r="K49" s="77" t="s">
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="L49" s="77"/>
-      <c r="M49" s="77"/>
-      <c r="N49" s="77"/>
-      <c r="P49" s="60" t="s">
+      <c r="L49" s="58"/>
+      <c r="M49" s="58"/>
+      <c r="N49" s="58"/>
+      <c r="P49" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="Q49" s="52"/>
-      <c r="R49" s="52"/>
-      <c r="S49" s="52"/>
-      <c r="T49" s="52"/>
-      <c r="U49" s="52"/>
-      <c r="V49" s="52"/>
-      <c r="W49" s="53"/>
+      <c r="Q49" s="60"/>
+      <c r="R49" s="60"/>
+      <c r="S49" s="60"/>
+      <c r="T49" s="60"/>
+      <c r="U49" s="60"/>
+      <c r="V49" s="60"/>
+      <c r="W49" s="61"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
@@ -2310,23 +2310,23 @@
       <c r="N50" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="P50" s="54"/>
-      <c r="Q50" s="55"/>
-      <c r="R50" s="55"/>
-      <c r="S50" s="55"/>
-      <c r="T50" s="55"/>
-      <c r="U50" s="55"/>
-      <c r="V50" s="55"/>
-      <c r="W50" s="56"/>
+      <c r="P50" s="62"/>
+      <c r="Q50" s="63"/>
+      <c r="R50" s="63"/>
+      <c r="S50" s="63"/>
+      <c r="T50" s="63"/>
+      <c r="U50" s="63"/>
+      <c r="V50" s="63"/>
+      <c r="W50" s="64"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A51" s="81" t="s">
+      <c r="A51" s="68" t="s">
         <v>28</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="84">
+      <c r="C51" s="55">
         <v>0.94</v>
       </c>
       <c r="D51" s="42">
@@ -2338,7 +2338,7 @@
       <c r="F51" s="27">
         <v>0.95599999999999996</v>
       </c>
-      <c r="G51" s="84">
+      <c r="G51" s="55">
         <v>0.95199999999999996</v>
       </c>
       <c r="H51" s="26">
@@ -2350,7 +2350,7 @@
       <c r="J51" s="27">
         <v>0.96799999999999997</v>
       </c>
-      <c r="K51" s="84">
+      <c r="K51" s="55">
         <v>0.94599999999999995</v>
       </c>
       <c r="L51" s="26">
@@ -2362,21 +2362,21 @@
       <c r="N51" s="27">
         <v>0.96699999999999997</v>
       </c>
-      <c r="P51" s="54"/>
-      <c r="Q51" s="55"/>
-      <c r="R51" s="55"/>
-      <c r="S51" s="55"/>
-      <c r="T51" s="55"/>
-      <c r="U51" s="55"/>
-      <c r="V51" s="55"/>
-      <c r="W51" s="56"/>
+      <c r="P51" s="62"/>
+      <c r="Q51" s="63"/>
+      <c r="R51" s="63"/>
+      <c r="S51" s="63"/>
+      <c r="T51" s="63"/>
+      <c r="U51" s="63"/>
+      <c r="V51" s="63"/>
+      <c r="W51" s="64"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A52" s="82"/>
+      <c r="A52" s="69"/>
       <c r="B52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="85"/>
+      <c r="C52" s="56"/>
       <c r="D52" s="43">
         <v>0.94399999999999995</v>
       </c>
@@ -2386,7 +2386,7 @@
       <c r="F52" s="29">
         <v>0.93799999999999994</v>
       </c>
-      <c r="G52" s="85"/>
+      <c r="G52" s="56"/>
       <c r="H52" s="28">
         <v>0.94099999999999995</v>
       </c>
@@ -2396,7 +2396,7 @@
       <c r="J52" s="29">
         <v>0.95099999999999996</v>
       </c>
-      <c r="K52" s="85"/>
+      <c r="K52" s="56"/>
       <c r="L52" s="28">
         <v>0.97399999999999998</v>
       </c>
@@ -2406,21 +2406,21 @@
       <c r="N52" s="29">
         <v>0.94899999999999995</v>
       </c>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="55"/>
-      <c r="R52" s="55"/>
-      <c r="S52" s="55"/>
-      <c r="T52" s="55"/>
-      <c r="U52" s="55"/>
-      <c r="V52" s="55"/>
-      <c r="W52" s="56"/>
+      <c r="P52" s="62"/>
+      <c r="Q52" s="63"/>
+      <c r="R52" s="63"/>
+      <c r="S52" s="63"/>
+      <c r="T52" s="63"/>
+      <c r="U52" s="63"/>
+      <c r="V52" s="63"/>
+      <c r="W52" s="64"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A53" s="83"/>
+      <c r="A53" s="70"/>
       <c r="B53" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="86"/>
+      <c r="C53" s="57"/>
       <c r="D53" s="44">
         <v>0.77400000000000002</v>
       </c>
@@ -2430,7 +2430,7 @@
       <c r="F53" s="31">
         <v>0.80900000000000005</v>
       </c>
-      <c r="G53" s="86"/>
+      <c r="G53" s="57"/>
       <c r="H53" s="30">
         <v>0.77500000000000002</v>
       </c>
@@ -2440,7 +2440,7 @@
       <c r="J53" s="31">
         <v>0.86</v>
       </c>
-      <c r="K53" s="86"/>
+      <c r="K53" s="57"/>
       <c r="L53" s="30">
         <v>0.69399999999999995</v>
       </c>
@@ -2450,23 +2450,23 @@
       <c r="N53" s="31">
         <v>0.81200000000000006</v>
       </c>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="55"/>
-      <c r="R53" s="55"/>
-      <c r="S53" s="55"/>
-      <c r="T53" s="55"/>
-      <c r="U53" s="55"/>
-      <c r="V53" s="55"/>
-      <c r="W53" s="56"/>
+      <c r="P53" s="62"/>
+      <c r="Q53" s="63"/>
+      <c r="R53" s="63"/>
+      <c r="S53" s="63"/>
+      <c r="T53" s="63"/>
+      <c r="U53" s="63"/>
+      <c r="V53" s="63"/>
+      <c r="W53" s="64"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A54" s="81" t="s">
+      <c r="A54" s="68" t="s">
         <v>29</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="84">
+      <c r="C54" s="55">
         <v>0.94399999999999995</v>
       </c>
       <c r="D54" s="42">
@@ -2478,7 +2478,7 @@
       <c r="F54" s="27">
         <v>0.95899999999999996</v>
       </c>
-      <c r="G54" s="84">
+      <c r="G54" s="55">
         <v>0.95199999999999996</v>
       </c>
       <c r="H54" s="26">
@@ -2490,7 +2490,7 @@
       <c r="J54" s="27">
         <v>0.96299999999999997</v>
       </c>
-      <c r="K54" s="84">
+      <c r="K54" s="55">
         <v>0.95199999999999996</v>
       </c>
       <c r="L54" s="26">
@@ -2502,21 +2502,21 @@
       <c r="N54" s="27">
         <v>0.96299999999999997</v>
       </c>
-      <c r="P54" s="54"/>
-      <c r="Q54" s="55"/>
-      <c r="R54" s="55"/>
-      <c r="S54" s="55"/>
-      <c r="T54" s="55"/>
-      <c r="U54" s="55"/>
-      <c r="V54" s="55"/>
-      <c r="W54" s="56"/>
+      <c r="P54" s="62"/>
+      <c r="Q54" s="63"/>
+      <c r="R54" s="63"/>
+      <c r="S54" s="63"/>
+      <c r="T54" s="63"/>
+      <c r="U54" s="63"/>
+      <c r="V54" s="63"/>
+      <c r="W54" s="64"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A55" s="82"/>
+      <c r="A55" s="69"/>
       <c r="B55" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="85"/>
+      <c r="C55" s="56"/>
       <c r="D55" s="43">
         <v>0.93700000000000006</v>
       </c>
@@ -2526,7 +2526,7 @@
       <c r="F55" s="29">
         <v>0.93899999999999995</v>
       </c>
-      <c r="G55" s="85"/>
+      <c r="G55" s="56"/>
       <c r="H55" s="28">
         <v>0.91900000000000004</v>
       </c>
@@ -2536,7 +2536,7 @@
       <c r="J55" s="29">
         <v>0.94599999999999995</v>
       </c>
-      <c r="K55" s="85"/>
+      <c r="K55" s="56"/>
       <c r="L55" s="28">
         <v>0.95499999999999996</v>
       </c>
@@ -2546,21 +2546,21 @@
       <c r="N55" s="29">
         <v>0.95399999999999996</v>
       </c>
-      <c r="P55" s="54"/>
-      <c r="Q55" s="55"/>
-      <c r="R55" s="55"/>
-      <c r="S55" s="55"/>
-      <c r="T55" s="55"/>
-      <c r="U55" s="55"/>
-      <c r="V55" s="55"/>
-      <c r="W55" s="56"/>
+      <c r="P55" s="62"/>
+      <c r="Q55" s="63"/>
+      <c r="R55" s="63"/>
+      <c r="S55" s="63"/>
+      <c r="T55" s="63"/>
+      <c r="U55" s="63"/>
+      <c r="V55" s="63"/>
+      <c r="W55" s="64"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A56" s="83"/>
+      <c r="A56" s="70"/>
       <c r="B56" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="86"/>
+      <c r="C56" s="57"/>
       <c r="D56" s="44">
         <v>0.84699999999999998</v>
       </c>
@@ -2570,7 +2570,7 @@
       <c r="F56" s="31">
         <v>0.84599999999999997</v>
       </c>
-      <c r="G56" s="86"/>
+      <c r="G56" s="57"/>
       <c r="H56" s="30">
         <v>0.86699999999999999</v>
       </c>
@@ -2580,7 +2580,7 @@
       <c r="J56" s="31">
         <v>0.90800000000000003</v>
       </c>
-      <c r="K56" s="86"/>
+      <c r="K56" s="57"/>
       <c r="L56" s="30">
         <v>0.78600000000000003</v>
       </c>
@@ -2590,27 +2590,27 @@
       <c r="N56" s="31">
         <v>0.86899999999999999</v>
       </c>
-      <c r="P56" s="54"/>
-      <c r="Q56" s="55"/>
-      <c r="R56" s="55"/>
-      <c r="S56" s="55"/>
-      <c r="T56" s="55"/>
-      <c r="U56" s="55"/>
-      <c r="V56" s="55"/>
-      <c r="W56" s="56"/>
+      <c r="P56" s="62"/>
+      <c r="Q56" s="63"/>
+      <c r="R56" s="63"/>
+      <c r="S56" s="63"/>
+      <c r="T56" s="63"/>
+      <c r="U56" s="63"/>
+      <c r="V56" s="63"/>
+      <c r="W56" s="64"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A57" s="81" t="s">
+      <c r="A57" s="68" t="s">
         <v>30</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="84"/>
+      <c r="C57" s="55"/>
       <c r="D57" s="42"/>
       <c r="E57" s="42"/>
       <c r="F57" s="45"/>
-      <c r="G57" s="84">
+      <c r="G57" s="55">
         <v>0.78600000000000003</v>
       </c>
       <c r="H57" s="28">
@@ -2622,7 +2622,7 @@
       <c r="J57" s="29">
         <v>0.27</v>
       </c>
-      <c r="K57" s="84">
+      <c r="K57" s="55">
         <v>0.84</v>
       </c>
       <c r="L57" s="28">
@@ -2634,25 +2634,25 @@
       <c r="N57" s="32">
         <v>0.379</v>
       </c>
-      <c r="P57" s="54"/>
-      <c r="Q57" s="55"/>
-      <c r="R57" s="55"/>
-      <c r="S57" s="55"/>
-      <c r="T57" s="55"/>
-      <c r="U57" s="55"/>
-      <c r="V57" s="55"/>
-      <c r="W57" s="56"/>
+      <c r="P57" s="62"/>
+      <c r="Q57" s="63"/>
+      <c r="R57" s="63"/>
+      <c r="S57" s="63"/>
+      <c r="T57" s="63"/>
+      <c r="U57" s="63"/>
+      <c r="V57" s="63"/>
+      <c r="W57" s="64"/>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A58" s="82"/>
+      <c r="A58" s="69"/>
       <c r="B58" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="85"/>
+      <c r="C58" s="56"/>
       <c r="D58" s="43"/>
       <c r="E58" s="43"/>
       <c r="F58" s="32"/>
-      <c r="G58" s="85"/>
+      <c r="G58" s="56"/>
       <c r="H58" s="28">
         <v>0.84699999999999998</v>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="J58" s="29">
         <v>0.85599999999999998</v>
       </c>
-      <c r="K58" s="85"/>
+      <c r="K58" s="56"/>
       <c r="L58" s="28">
         <v>0.79600000000000004</v>
       </c>
@@ -2672,25 +2672,25 @@
       <c r="N58" s="32">
         <v>0.83799999999999997</v>
       </c>
-      <c r="P58" s="54"/>
-      <c r="Q58" s="55"/>
-      <c r="R58" s="55"/>
-      <c r="S58" s="55"/>
-      <c r="T58" s="55"/>
-      <c r="U58" s="55"/>
-      <c r="V58" s="55"/>
-      <c r="W58" s="56"/>
+      <c r="P58" s="62"/>
+      <c r="Q58" s="63"/>
+      <c r="R58" s="63"/>
+      <c r="S58" s="63"/>
+      <c r="T58" s="63"/>
+      <c r="U58" s="63"/>
+      <c r="V58" s="63"/>
+      <c r="W58" s="64"/>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A59" s="82"/>
+      <c r="A59" s="69"/>
       <c r="B59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="85"/>
+      <c r="C59" s="56"/>
       <c r="D59" s="43"/>
       <c r="E59" s="43"/>
       <c r="F59" s="32"/>
-      <c r="G59" s="85"/>
+      <c r="G59" s="56"/>
       <c r="H59" s="28">
         <v>0.77100000000000002</v>
       </c>
@@ -2700,7 +2700,7 @@
       <c r="J59" s="29">
         <v>0.86099999999999999</v>
       </c>
-      <c r="K59" s="85"/>
+      <c r="K59" s="56"/>
       <c r="L59" s="28">
         <v>0.94899999999999995</v>
       </c>
@@ -2710,25 +2710,25 @@
       <c r="N59" s="32">
         <v>0.94899999999999995</v>
       </c>
-      <c r="P59" s="54"/>
-      <c r="Q59" s="55"/>
-      <c r="R59" s="55"/>
-      <c r="S59" s="55"/>
-      <c r="T59" s="55"/>
-      <c r="U59" s="55"/>
-      <c r="V59" s="55"/>
-      <c r="W59" s="56"/>
+      <c r="P59" s="62"/>
+      <c r="Q59" s="63"/>
+      <c r="R59" s="63"/>
+      <c r="S59" s="63"/>
+      <c r="T59" s="63"/>
+      <c r="U59" s="63"/>
+      <c r="V59" s="63"/>
+      <c r="W59" s="64"/>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A60" s="83"/>
+      <c r="A60" s="70"/>
       <c r="B60" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="86"/>
+      <c r="C60" s="57"/>
       <c r="D60" s="44"/>
       <c r="E60" s="44"/>
       <c r="F60" s="33"/>
-      <c r="G60" s="86"/>
+      <c r="G60" s="57"/>
       <c r="H60" s="30">
         <v>0.748</v>
       </c>
@@ -2738,7 +2738,7 @@
       <c r="J60" s="31">
         <v>0.83699999999999997</v>
       </c>
-      <c r="K60" s="86"/>
+      <c r="K60" s="57"/>
       <c r="L60" s="30">
         <v>0.746</v>
       </c>
@@ -2748,14 +2748,14 @@
       <c r="N60" s="33">
         <v>0.83799999999999997</v>
       </c>
-      <c r="P60" s="57"/>
-      <c r="Q60" s="58"/>
-      <c r="R60" s="58"/>
-      <c r="S60" s="58"/>
-      <c r="T60" s="58"/>
-      <c r="U60" s="58"/>
-      <c r="V60" s="58"/>
-      <c r="W60" s="59"/>
+      <c r="P60" s="65"/>
+      <c r="Q60" s="66"/>
+      <c r="R60" s="66"/>
+      <c r="S60" s="66"/>
+      <c r="T60" s="66"/>
+      <c r="U60" s="66"/>
+      <c r="V60" s="66"/>
+      <c r="W60" s="67"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
@@ -2771,38 +2771,38 @@
       </c>
     </row>
     <row r="65" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="77" t="s">
+      <c r="B65" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="C65" s="77"/>
-      <c r="D65" s="77"/>
-      <c r="E65" s="77"/>
-      <c r="F65" s="77"/>
-      <c r="G65" s="77" t="s">
+      <c r="C65" s="58"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="H65" s="77"/>
-      <c r="I65" s="77"/>
-      <c r="J65" s="77"/>
-      <c r="K65" s="77"/>
-      <c r="L65" s="77" t="s">
+      <c r="H65" s="58"/>
+      <c r="I65" s="58"/>
+      <c r="J65" s="58"/>
+      <c r="K65" s="58"/>
+      <c r="L65" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="M65" s="77"/>
-      <c r="N65" s="77"/>
-      <c r="O65" s="77"/>
-      <c r="P65" s="77"/>
-      <c r="R65" s="60" t="s">
+      <c r="M65" s="58"/>
+      <c r="N65" s="58"/>
+      <c r="O65" s="58"/>
+      <c r="P65" s="58"/>
+      <c r="R65" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="S65" s="69"/>
-      <c r="T65" s="69"/>
-      <c r="U65" s="69"/>
-      <c r="V65" s="69"/>
-      <c r="W65" s="69"/>
-      <c r="X65" s="69"/>
-      <c r="Y65" s="69"/>
-      <c r="Z65" s="70"/>
+      <c r="S65" s="83"/>
+      <c r="T65" s="83"/>
+      <c r="U65" s="83"/>
+      <c r="V65" s="83"/>
+      <c r="W65" s="83"/>
+      <c r="X65" s="83"/>
+      <c r="Y65" s="83"/>
+      <c r="Z65" s="84"/>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B66" s="17" t="s">
@@ -2850,15 +2850,15 @@
       <c r="P66" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="R66" s="71"/>
-      <c r="S66" s="72"/>
-      <c r="T66" s="72"/>
-      <c r="U66" s="72"/>
-      <c r="V66" s="72"/>
-      <c r="W66" s="72"/>
-      <c r="X66" s="72"/>
-      <c r="Y66" s="72"/>
-      <c r="Z66" s="73"/>
+      <c r="R66" s="85"/>
+      <c r="S66" s="86"/>
+      <c r="T66" s="86"/>
+      <c r="U66" s="86"/>
+      <c r="V66" s="86"/>
+      <c r="W66" s="86"/>
+      <c r="X66" s="86"/>
+      <c r="Y66" s="86"/>
+      <c r="Z66" s="87"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="46">
@@ -2909,15 +2909,15 @@
       <c r="P67" s="37">
         <v>0.23400000000000001</v>
       </c>
-      <c r="R67" s="71"/>
-      <c r="S67" s="72"/>
-      <c r="T67" s="72"/>
-      <c r="U67" s="72"/>
-      <c r="V67" s="72"/>
-      <c r="W67" s="72"/>
-      <c r="X67" s="72"/>
-      <c r="Y67" s="72"/>
-      <c r="Z67" s="73"/>
+      <c r="R67" s="85"/>
+      <c r="S67" s="86"/>
+      <c r="T67" s="86"/>
+      <c r="U67" s="86"/>
+      <c r="V67" s="86"/>
+      <c r="W67" s="86"/>
+      <c r="X67" s="86"/>
+      <c r="Y67" s="86"/>
+      <c r="Z67" s="87"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="46" t="s">
@@ -2968,26 +2968,26 @@
       <c r="P68" s="41">
         <v>0.27100000000000002</v>
       </c>
-      <c r="R68" s="71"/>
-      <c r="S68" s="72"/>
-      <c r="T68" s="72"/>
-      <c r="U68" s="72"/>
-      <c r="V68" s="72"/>
-      <c r="W68" s="72"/>
-      <c r="X68" s="72"/>
-      <c r="Y68" s="72"/>
-      <c r="Z68" s="73"/>
+      <c r="R68" s="85"/>
+      <c r="S68" s="86"/>
+      <c r="T68" s="86"/>
+      <c r="U68" s="86"/>
+      <c r="V68" s="86"/>
+      <c r="W68" s="86"/>
+      <c r="X68" s="86"/>
+      <c r="Y68" s="86"/>
+      <c r="Z68" s="87"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="R69" s="74"/>
-      <c r="S69" s="75"/>
-      <c r="T69" s="75"/>
-      <c r="U69" s="75"/>
-      <c r="V69" s="75"/>
-      <c r="W69" s="75"/>
-      <c r="X69" s="75"/>
-      <c r="Y69" s="75"/>
-      <c r="Z69" s="76"/>
+      <c r="R69" s="88"/>
+      <c r="S69" s="89"/>
+      <c r="T69" s="89"/>
+      <c r="U69" s="89"/>
+      <c r="V69" s="89"/>
+      <c r="W69" s="89"/>
+      <c r="X69" s="89"/>
+      <c r="Y69" s="89"/>
+      <c r="Z69" s="90"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
@@ -3000,33 +3000,33 @@
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C73" s="77" t="s">
+      <c r="C73" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D73" s="77"/>
-      <c r="E73" s="77"/>
-      <c r="F73" s="77"/>
-      <c r="G73" s="77" t="s">
+      <c r="D73" s="58"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="58"/>
+      <c r="G73" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H73" s="77"/>
-      <c r="I73" s="77"/>
-      <c r="J73" s="77"/>
-      <c r="K73" s="77" t="s">
+      <c r="H73" s="58"/>
+      <c r="I73" s="58"/>
+      <c r="J73" s="58"/>
+      <c r="K73" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="L73" s="77"/>
-      <c r="M73" s="77"/>
-      <c r="N73" s="77"/>
-      <c r="P73" s="51" t="s">
+      <c r="L73" s="58"/>
+      <c r="M73" s="58"/>
+      <c r="N73" s="58"/>
+      <c r="P73" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="Q73" s="52"/>
-      <c r="R73" s="52"/>
-      <c r="S73" s="52"/>
-      <c r="T73" s="52"/>
-      <c r="U73" s="52"/>
-      <c r="V73" s="53"/>
+      <c r="Q73" s="60"/>
+      <c r="R73" s="60"/>
+      <c r="S73" s="60"/>
+      <c r="T73" s="60"/>
+      <c r="U73" s="60"/>
+      <c r="V73" s="61"/>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C74" s="4" t="s">
@@ -3065,26 +3065,26 @@
       <c r="N74" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="P74" s="54"/>
-      <c r="Q74" s="55"/>
-      <c r="R74" s="55"/>
-      <c r="S74" s="55"/>
-      <c r="T74" s="55"/>
-      <c r="U74" s="55"/>
-      <c r="V74" s="56"/>
+      <c r="P74" s="62"/>
+      <c r="Q74" s="63"/>
+      <c r="R74" s="63"/>
+      <c r="S74" s="63"/>
+      <c r="T74" s="63"/>
+      <c r="U74" s="63"/>
+      <c r="V74" s="64"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="89" t="s">
+      <c r="A75" s="53" t="s">
         <v>53</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="84"/>
+      <c r="C75" s="55"/>
       <c r="D75" s="42"/>
       <c r="E75" s="42"/>
       <c r="F75" s="27"/>
-      <c r="G75" s="84">
+      <c r="G75" s="55">
         <v>0.78500000000000003</v>
       </c>
       <c r="H75" s="26">
@@ -3096,7 +3096,7 @@
       <c r="J75" s="27">
         <v>0.85499999999999998</v>
       </c>
-      <c r="K75" s="84">
+      <c r="K75" s="55">
         <v>0.83899999999999997</v>
       </c>
       <c r="L75" s="26">
@@ -3108,24 +3108,24 @@
       <c r="N75" s="27">
         <v>0.83799999999999997</v>
       </c>
-      <c r="P75" s="54"/>
-      <c r="Q75" s="55"/>
-      <c r="R75" s="55"/>
-      <c r="S75" s="55"/>
-      <c r="T75" s="55"/>
-      <c r="U75" s="55"/>
-      <c r="V75" s="56"/>
+      <c r="P75" s="62"/>
+      <c r="Q75" s="63"/>
+      <c r="R75" s="63"/>
+      <c r="S75" s="63"/>
+      <c r="T75" s="63"/>
+      <c r="U75" s="63"/>
+      <c r="V75" s="64"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" s="89"/>
+      <c r="A76" s="53"/>
       <c r="B76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="85"/>
+      <c r="C76" s="56"/>
       <c r="D76" s="43"/>
       <c r="E76" s="43"/>
       <c r="F76" s="29"/>
-      <c r="G76" s="85"/>
+      <c r="G76" s="56"/>
       <c r="H76" s="28">
         <v>0.77100000000000002</v>
       </c>
@@ -3135,7 +3135,7 @@
       <c r="J76" s="29">
         <v>0.86099999999999999</v>
       </c>
-      <c r="K76" s="85"/>
+      <c r="K76" s="56"/>
       <c r="L76" s="28">
         <v>0.94899999999999995</v>
       </c>
@@ -3145,24 +3145,24 @@
       <c r="N76" s="29">
         <v>0.94899999999999995</v>
       </c>
-      <c r="P76" s="54"/>
-      <c r="Q76" s="55"/>
-      <c r="R76" s="55"/>
-      <c r="S76" s="55"/>
-      <c r="T76" s="55"/>
-      <c r="U76" s="55"/>
-      <c r="V76" s="56"/>
+      <c r="P76" s="62"/>
+      <c r="Q76" s="63"/>
+      <c r="R76" s="63"/>
+      <c r="S76" s="63"/>
+      <c r="T76" s="63"/>
+      <c r="U76" s="63"/>
+      <c r="V76" s="64"/>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" s="89"/>
+      <c r="A77" s="53"/>
       <c r="B77" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C77" s="86"/>
+      <c r="C77" s="57"/>
       <c r="D77" s="44"/>
       <c r="E77" s="44"/>
       <c r="F77" s="31"/>
-      <c r="G77" s="86"/>
+      <c r="G77" s="57"/>
       <c r="H77" s="30">
         <v>0.74</v>
       </c>
@@ -3172,7 +3172,7 @@
       <c r="J77" s="31">
         <v>0.83199999999999996</v>
       </c>
-      <c r="K77" s="86"/>
+      <c r="K77" s="57"/>
       <c r="L77" s="30">
         <v>0.73699999999999999</v>
       </c>
@@ -3182,22 +3182,22 @@
       <c r="N77" s="31">
         <v>0.83699999999999997</v>
       </c>
-      <c r="P77" s="54"/>
-      <c r="Q77" s="55"/>
-      <c r="R77" s="55"/>
-      <c r="S77" s="55"/>
-      <c r="T77" s="55"/>
-      <c r="U77" s="55"/>
-      <c r="V77" s="56"/>
+      <c r="P77" s="62"/>
+      <c r="Q77" s="63"/>
+      <c r="R77" s="63"/>
+      <c r="S77" s="63"/>
+      <c r="T77" s="63"/>
+      <c r="U77" s="63"/>
+      <c r="V77" s="64"/>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A78" s="89" t="s">
+      <c r="A78" s="53" t="s">
         <v>54</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C78" s="84">
+      <c r="C78" s="55">
         <v>0.92200000000000004</v>
       </c>
       <c r="D78" s="28">
@@ -3209,7 +3209,7 @@
       <c r="F78" s="29">
         <v>0.94199999999999995</v>
       </c>
-      <c r="G78" s="84">
+      <c r="G78" s="55">
         <v>0.78600000000000003</v>
       </c>
       <c r="H78" s="28">
@@ -3221,7 +3221,7 @@
       <c r="J78" s="29">
         <v>0.85599999999999998</v>
       </c>
-      <c r="K78" s="84">
+      <c r="K78" s="55">
         <v>0.84</v>
       </c>
       <c r="L78" s="28">
@@ -3233,20 +3233,20 @@
       <c r="N78" s="32">
         <v>0.83799999999999997</v>
       </c>
-      <c r="P78" s="54"/>
-      <c r="Q78" s="55"/>
-      <c r="R78" s="55"/>
-      <c r="S78" s="55"/>
-      <c r="T78" s="55"/>
-      <c r="U78" s="55"/>
-      <c r="V78" s="56"/>
+      <c r="P78" s="62"/>
+      <c r="Q78" s="63"/>
+      <c r="R78" s="63"/>
+      <c r="S78" s="63"/>
+      <c r="T78" s="63"/>
+      <c r="U78" s="63"/>
+      <c r="V78" s="64"/>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A79" s="89"/>
+      <c r="A79" s="53"/>
       <c r="B79" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="85"/>
+      <c r="C79" s="56"/>
       <c r="D79" s="28">
         <v>0.92900000000000005</v>
       </c>
@@ -3256,7 +3256,7 @@
       <c r="F79" s="29">
         <v>0.94199999999999995</v>
       </c>
-      <c r="G79" s="85"/>
+      <c r="G79" s="56"/>
       <c r="H79" s="28">
         <v>0.77100000000000002</v>
       </c>
@@ -3266,7 +3266,7 @@
       <c r="J79" s="29">
         <v>0.86099999999999999</v>
       </c>
-      <c r="K79" s="85"/>
+      <c r="K79" s="56"/>
       <c r="L79" s="28">
         <v>0.94899999999999995</v>
       </c>
@@ -3276,20 +3276,20 @@
       <c r="N79" s="32">
         <v>0.94899999999999995</v>
       </c>
-      <c r="P79" s="54"/>
-      <c r="Q79" s="55"/>
-      <c r="R79" s="55"/>
-      <c r="S79" s="55"/>
-      <c r="T79" s="55"/>
-      <c r="U79" s="55"/>
-      <c r="V79" s="56"/>
+      <c r="P79" s="62"/>
+      <c r="Q79" s="63"/>
+      <c r="R79" s="63"/>
+      <c r="S79" s="63"/>
+      <c r="T79" s="63"/>
+      <c r="U79" s="63"/>
+      <c r="V79" s="64"/>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A80" s="89"/>
+      <c r="A80" s="53"/>
       <c r="B80" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C80" s="86"/>
+      <c r="C80" s="57"/>
       <c r="D80" s="30">
         <v>0.82699999999999996</v>
       </c>
@@ -3299,7 +3299,7 @@
       <c r="F80" s="31">
         <v>0.86199999999999999</v>
       </c>
-      <c r="G80" s="86"/>
+      <c r="G80" s="57"/>
       <c r="H80" s="30">
         <v>0.748</v>
       </c>
@@ -3309,7 +3309,7 @@
       <c r="J80" s="31">
         <v>0.83699999999999997</v>
       </c>
-      <c r="K80" s="86"/>
+      <c r="K80" s="57"/>
       <c r="L80" s="30">
         <v>0.746</v>
       </c>
@@ -3319,13 +3319,13 @@
       <c r="N80" s="33">
         <v>0.83799999999999997</v>
       </c>
-      <c r="P80" s="57"/>
-      <c r="Q80" s="58"/>
-      <c r="R80" s="58"/>
-      <c r="S80" s="58"/>
-      <c r="T80" s="58"/>
-      <c r="U80" s="58"/>
-      <c r="V80" s="59"/>
+      <c r="P80" s="65"/>
+      <c r="Q80" s="66"/>
+      <c r="R80" s="66"/>
+      <c r="S80" s="66"/>
+      <c r="T80" s="66"/>
+      <c r="U80" s="66"/>
+      <c r="V80" s="67"/>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
@@ -3338,62 +3338,62 @@
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N86" s="51" t="s">
+      <c r="N86" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="O86" s="52"/>
-      <c r="P86" s="52"/>
-      <c r="Q86" s="52"/>
-      <c r="R86" s="52"/>
-      <c r="S86" s="52"/>
-      <c r="T86" s="52"/>
-      <c r="U86" s="53"/>
+      <c r="O86" s="60"/>
+      <c r="P86" s="60"/>
+      <c r="Q86" s="60"/>
+      <c r="R86" s="60"/>
+      <c r="S86" s="60"/>
+      <c r="T86" s="60"/>
+      <c r="U86" s="61"/>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N87" s="54"/>
-      <c r="O87" s="55"/>
-      <c r="P87" s="55"/>
-      <c r="Q87" s="55"/>
-      <c r="R87" s="55"/>
-      <c r="S87" s="55"/>
-      <c r="T87" s="55"/>
-      <c r="U87" s="56"/>
+      <c r="N87" s="62"/>
+      <c r="O87" s="63"/>
+      <c r="P87" s="63"/>
+      <c r="Q87" s="63"/>
+      <c r="R87" s="63"/>
+      <c r="S87" s="63"/>
+      <c r="T87" s="63"/>
+      <c r="U87" s="64"/>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="N88" s="54"/>
-      <c r="O88" s="55"/>
-      <c r="P88" s="55"/>
-      <c r="Q88" s="55"/>
-      <c r="R88" s="55"/>
-      <c r="S88" s="55"/>
-      <c r="T88" s="55"/>
-      <c r="U88" s="56"/>
+      <c r="N88" s="62"/>
+      <c r="O88" s="63"/>
+      <c r="P88" s="63"/>
+      <c r="Q88" s="63"/>
+      <c r="R88" s="63"/>
+      <c r="S88" s="63"/>
+      <c r="T88" s="63"/>
+      <c r="U88" s="64"/>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>71</v>
       </c>
-      <c r="N89" s="54"/>
-      <c r="O89" s="55"/>
-      <c r="P89" s="55"/>
-      <c r="Q89" s="55"/>
-      <c r="R89" s="55"/>
-      <c r="S89" s="55"/>
-      <c r="T89" s="55"/>
-      <c r="U89" s="56"/>
+      <c r="N89" s="62"/>
+      <c r="O89" s="63"/>
+      <c r="P89" s="63"/>
+      <c r="Q89" s="63"/>
+      <c r="R89" s="63"/>
+      <c r="S89" s="63"/>
+      <c r="T89" s="63"/>
+      <c r="U89" s="64"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N90" s="54"/>
-      <c r="O90" s="55"/>
-      <c r="P90" s="55"/>
-      <c r="Q90" s="55"/>
-      <c r="R90" s="55"/>
-      <c r="S90" s="55"/>
-      <c r="T90" s="55"/>
-      <c r="U90" s="56"/>
+      <c r="N90" s="62"/>
+      <c r="O90" s="63"/>
+      <c r="P90" s="63"/>
+      <c r="Q90" s="63"/>
+      <c r="R90" s="63"/>
+      <c r="S90" s="63"/>
+      <c r="T90" s="63"/>
+      <c r="U90" s="64"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B91" s="4" t="s">
@@ -3411,14 +3411,14 @@
       <c r="F91" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="N91" s="54"/>
-      <c r="O91" s="55"/>
-      <c r="P91" s="55"/>
-      <c r="Q91" s="55"/>
-      <c r="R91" s="55"/>
-      <c r="S91" s="55"/>
-      <c r="T91" s="55"/>
-      <c r="U91" s="56"/>
+      <c r="N91" s="62"/>
+      <c r="O91" s="63"/>
+      <c r="P91" s="63"/>
+      <c r="Q91" s="63"/>
+      <c r="R91" s="63"/>
+      <c r="S91" s="63"/>
+      <c r="T91" s="63"/>
+      <c r="U91" s="64"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
@@ -3440,14 +3440,14 @@
         <f>E92/187306</f>
         <v>2.2839631405294009E-2</v>
       </c>
-      <c r="N92" s="54"/>
-      <c r="O92" s="55"/>
-      <c r="P92" s="55"/>
-      <c r="Q92" s="55"/>
-      <c r="R92" s="55"/>
-      <c r="S92" s="55"/>
-      <c r="T92" s="55"/>
-      <c r="U92" s="56"/>
+      <c r="N92" s="62"/>
+      <c r="O92" s="63"/>
+      <c r="P92" s="63"/>
+      <c r="Q92" s="63"/>
+      <c r="R92" s="63"/>
+      <c r="S92" s="63"/>
+      <c r="T92" s="63"/>
+      <c r="U92" s="64"/>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
@@ -3469,14 +3469,14 @@
         <f>E93/(21600*4)</f>
         <v>2.3194444444444445E-2</v>
       </c>
-      <c r="N93" s="54"/>
-      <c r="O93" s="55"/>
-      <c r="P93" s="55"/>
-      <c r="Q93" s="55"/>
-      <c r="R93" s="55"/>
-      <c r="S93" s="55"/>
-      <c r="T93" s="55"/>
-      <c r="U93" s="56"/>
+      <c r="N93" s="62"/>
+      <c r="O93" s="63"/>
+      <c r="P93" s="63"/>
+      <c r="Q93" s="63"/>
+      <c r="R93" s="63"/>
+      <c r="S93" s="63"/>
+      <c r="T93" s="63"/>
+      <c r="U93" s="64"/>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
@@ -3498,109 +3498,109 @@
         <f>E94/(21600*4)</f>
         <v>3.033564814814815E-2</v>
       </c>
-      <c r="N94" s="54"/>
-      <c r="O94" s="55"/>
-      <c r="P94" s="55"/>
-      <c r="Q94" s="55"/>
-      <c r="R94" s="55"/>
-      <c r="S94" s="55"/>
-      <c r="T94" s="55"/>
-      <c r="U94" s="56"/>
+      <c r="N94" s="62"/>
+      <c r="O94" s="63"/>
+      <c r="P94" s="63"/>
+      <c r="Q94" s="63"/>
+      <c r="R94" s="63"/>
+      <c r="S94" s="63"/>
+      <c r="T94" s="63"/>
+      <c r="U94" s="64"/>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N95" s="54"/>
-      <c r="O95" s="55"/>
-      <c r="P95" s="55"/>
-      <c r="Q95" s="55"/>
-      <c r="R95" s="55"/>
-      <c r="S95" s="55"/>
-      <c r="T95" s="55"/>
-      <c r="U95" s="56"/>
+      <c r="N95" s="62"/>
+      <c r="O95" s="63"/>
+      <c r="P95" s="63"/>
+      <c r="Q95" s="63"/>
+      <c r="R95" s="63"/>
+      <c r="S95" s="63"/>
+      <c r="T95" s="63"/>
+      <c r="U95" s="64"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="N96" s="54"/>
-      <c r="O96" s="55"/>
-      <c r="P96" s="55"/>
-      <c r="Q96" s="55"/>
-      <c r="R96" s="55"/>
-      <c r="S96" s="55"/>
-      <c r="T96" s="55"/>
-      <c r="U96" s="56"/>
+      <c r="N96" s="62"/>
+      <c r="O96" s="63"/>
+      <c r="P96" s="63"/>
+      <c r="Q96" s="63"/>
+      <c r="R96" s="63"/>
+      <c r="S96" s="63"/>
+      <c r="T96" s="63"/>
+      <c r="U96" s="64"/>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>59</v>
       </c>
-      <c r="N97" s="54"/>
-      <c r="O97" s="55"/>
-      <c r="P97" s="55"/>
-      <c r="Q97" s="55"/>
-      <c r="R97" s="55"/>
-      <c r="S97" s="55"/>
-      <c r="T97" s="55"/>
-      <c r="U97" s="56"/>
+      <c r="N97" s="62"/>
+      <c r="O97" s="63"/>
+      <c r="P97" s="63"/>
+      <c r="Q97" s="63"/>
+      <c r="R97" s="63"/>
+      <c r="S97" s="63"/>
+      <c r="T97" s="63"/>
+      <c r="U97" s="64"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>77</v>
       </c>
-      <c r="N98" s="54"/>
-      <c r="O98" s="55"/>
-      <c r="P98" s="55"/>
-      <c r="Q98" s="55"/>
-      <c r="R98" s="55"/>
-      <c r="S98" s="55"/>
-      <c r="T98" s="55"/>
-      <c r="U98" s="56"/>
+      <c r="N98" s="62"/>
+      <c r="O98" s="63"/>
+      <c r="P98" s="63"/>
+      <c r="Q98" s="63"/>
+      <c r="R98" s="63"/>
+      <c r="S98" s="63"/>
+      <c r="T98" s="63"/>
+      <c r="U98" s="64"/>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C99" s="90" t="s">
+      <c r="C99" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="D99" s="90"/>
-      <c r="E99" s="90"/>
-      <c r="F99" s="90"/>
-      <c r="G99" s="90"/>
-      <c r="H99" s="90"/>
-      <c r="I99" s="90"/>
-      <c r="J99" s="90"/>
-      <c r="K99" s="90"/>
-      <c r="N99" s="54"/>
-      <c r="O99" s="55"/>
-      <c r="P99" s="55"/>
-      <c r="Q99" s="55"/>
-      <c r="R99" s="55"/>
-      <c r="S99" s="55"/>
-      <c r="T99" s="55"/>
-      <c r="U99" s="56"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="54"/>
+      <c r="F99" s="54"/>
+      <c r="G99" s="54"/>
+      <c r="H99" s="54"/>
+      <c r="I99" s="54"/>
+      <c r="J99" s="54"/>
+      <c r="K99" s="54"/>
+      <c r="N99" s="62"/>
+      <c r="O99" s="63"/>
+      <c r="P99" s="63"/>
+      <c r="Q99" s="63"/>
+      <c r="R99" s="63"/>
+      <c r="S99" s="63"/>
+      <c r="T99" s="63"/>
+      <c r="U99" s="64"/>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C100" s="88" t="s">
+      <c r="C100" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D100" s="88"/>
-      <c r="E100" s="88"/>
-      <c r="F100" s="88" t="s">
+      <c r="D100" s="52"/>
+      <c r="E100" s="52"/>
+      <c r="F100" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="G100" s="88"/>
-      <c r="H100" s="88"/>
-      <c r="I100" s="88" t="s">
+      <c r="G100" s="52"/>
+      <c r="H100" s="52"/>
+      <c r="I100" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="J100" s="88"/>
-      <c r="K100" s="88"/>
-      <c r="N100" s="54"/>
-      <c r="O100" s="55"/>
-      <c r="P100" s="55"/>
-      <c r="Q100" s="55"/>
-      <c r="R100" s="55"/>
-      <c r="S100" s="55"/>
-      <c r="T100" s="55"/>
-      <c r="U100" s="56"/>
+      <c r="J100" s="52"/>
+      <c r="K100" s="52"/>
+      <c r="N100" s="62"/>
+      <c r="O100" s="63"/>
+      <c r="P100" s="63"/>
+      <c r="Q100" s="63"/>
+      <c r="R100" s="63"/>
+      <c r="S100" s="63"/>
+      <c r="T100" s="63"/>
+      <c r="U100" s="64"/>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B101" s="48" t="s">
@@ -3633,17 +3633,17 @@
       <c r="K101" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="N101" s="54"/>
-      <c r="O101" s="55"/>
-      <c r="P101" s="55"/>
-      <c r="Q101" s="55"/>
-      <c r="R101" s="55"/>
-      <c r="S101" s="55"/>
-      <c r="T101" s="55"/>
-      <c r="U101" s="56"/>
+      <c r="N101" s="62"/>
+      <c r="O101" s="63"/>
+      <c r="P101" s="63"/>
+      <c r="Q101" s="63"/>
+      <c r="R101" s="63"/>
+      <c r="S101" s="63"/>
+      <c r="T101" s="63"/>
+      <c r="U101" s="64"/>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A102" s="87" t="s">
+      <c r="A102" s="51" t="s">
         <v>66</v>
       </c>
       <c r="B102" s="49" t="s">
@@ -3676,17 +3676,17 @@
       <c r="K102" s="7">
         <v>0.14499999999999999</v>
       </c>
-      <c r="N102" s="54"/>
-      <c r="O102" s="55"/>
-      <c r="P102" s="55"/>
-      <c r="Q102" s="55"/>
-      <c r="R102" s="55"/>
-      <c r="S102" s="55"/>
-      <c r="T102" s="55"/>
-      <c r="U102" s="56"/>
+      <c r="N102" s="62"/>
+      <c r="O102" s="63"/>
+      <c r="P102" s="63"/>
+      <c r="Q102" s="63"/>
+      <c r="R102" s="63"/>
+      <c r="S102" s="63"/>
+      <c r="T102" s="63"/>
+      <c r="U102" s="64"/>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A103" s="87"/>
+      <c r="A103" s="51"/>
       <c r="B103" s="49" t="s">
         <v>4</v>
       </c>
@@ -3717,17 +3717,17 @@
       <c r="K103" s="8">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="N103" s="54"/>
-      <c r="O103" s="55"/>
-      <c r="P103" s="55"/>
-      <c r="Q103" s="55"/>
-      <c r="R103" s="55"/>
-      <c r="S103" s="55"/>
-      <c r="T103" s="55"/>
-      <c r="U103" s="56"/>
+      <c r="N103" s="62"/>
+      <c r="O103" s="63"/>
+      <c r="P103" s="63"/>
+      <c r="Q103" s="63"/>
+      <c r="R103" s="63"/>
+      <c r="S103" s="63"/>
+      <c r="T103" s="63"/>
+      <c r="U103" s="64"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A104" s="87"/>
+      <c r="A104" s="51"/>
       <c r="B104" s="49" t="s">
         <v>2</v>
       </c>
@@ -3758,14 +3758,14 @@
       <c r="K104" s="11">
         <v>0</v>
       </c>
-      <c r="N104" s="57"/>
-      <c r="O104" s="58"/>
-      <c r="P104" s="58"/>
-      <c r="Q104" s="58"/>
-      <c r="R104" s="58"/>
-      <c r="S104" s="58"/>
-      <c r="T104" s="58"/>
-      <c r="U104" s="59"/>
+      <c r="N104" s="65"/>
+      <c r="O104" s="66"/>
+      <c r="P104" s="66"/>
+      <c r="Q104" s="66"/>
+      <c r="R104" s="66"/>
+      <c r="S104" s="66"/>
+      <c r="T104" s="66"/>
+      <c r="U104" s="67"/>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
@@ -3778,16 +3778,16 @@
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C109" s="88" t="s">
+      <c r="C109" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D109" s="88"/>
-      <c r="E109" s="88"/>
-      <c r="F109" s="88" t="s">
+      <c r="D109" s="52"/>
+      <c r="E109" s="52"/>
+      <c r="F109" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="G109" s="88"/>
-      <c r="H109" s="88"/>
+      <c r="G109" s="52"/>
+      <c r="H109" s="52"/>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B110" s="48" t="s">
@@ -3813,7 +3813,7 @@
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A111" s="87" t="s">
+      <c r="A111" s="51" t="s">
         <v>74</v>
       </c>
       <c r="B111" s="49" t="s">
@@ -3839,7 +3839,7 @@
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A112" s="87"/>
+      <c r="A112" s="51"/>
       <c r="B112" s="49" t="s">
         <v>4</v>
       </c>
@@ -3863,7 +3863,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="87"/>
+      <c r="A113" s="51"/>
       <c r="B113" s="49" t="s">
         <v>2</v>
       </c>
@@ -3888,6 +3888,52 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="N86:U104"/>
+    <mergeCell ref="P49:W60"/>
+    <mergeCell ref="P31:Y42"/>
+    <mergeCell ref="R65:Z69"/>
+    <mergeCell ref="N4:S11"/>
+    <mergeCell ref="N14:S19"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="K33:K35"/>
+    <mergeCell ref="K36:K38"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="K51:K53"/>
+    <mergeCell ref="K57:K60"/>
+    <mergeCell ref="G57:G60"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="K54:K56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="G65:K65"/>
+    <mergeCell ref="L65:P65"/>
+    <mergeCell ref="C73:F73"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="P73:V80"/>
     <mergeCell ref="A102:A104"/>
     <mergeCell ref="C109:E109"/>
     <mergeCell ref="F109:H109"/>
@@ -3904,52 +3950,6 @@
     <mergeCell ref="C75:C77"/>
     <mergeCell ref="G75:G77"/>
     <mergeCell ref="K75:K77"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="G65:K65"/>
-    <mergeCell ref="L65:P65"/>
-    <mergeCell ref="C73:F73"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="P73:V80"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="K51:K53"/>
-    <mergeCell ref="K57:K60"/>
-    <mergeCell ref="G57:G60"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="K54:K56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="K39:K42"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="K33:K35"/>
-    <mergeCell ref="K36:K38"/>
-    <mergeCell ref="N86:U104"/>
-    <mergeCell ref="P49:W60"/>
-    <mergeCell ref="P31:Y42"/>
-    <mergeCell ref="R65:Z69"/>
-    <mergeCell ref="N4:S11"/>
-    <mergeCell ref="N14:S19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/SPINDLE/results/results.xlsx
+++ b/SPINDLE/results/results.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javig\Documents\Drive\DTU\MASTER THESIS\Code\EEG_scoring\SPINDLE\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6217F7-4547-4781-B36C-359B42B41666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44FA63E-1AD3-46CC-A81F-A4D8D463FC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{71AAEDCA-75DE-41E7-B5AF-A926B438C4C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{71AAEDCA-75DE-41E7-B5AF-A926B438C4C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="91">
   <si>
     <t>Table 1: equal to table 2 in the SPINDLE paper (excluding aritfact epochs and evaluated in the scorers intersection)</t>
   </si>
@@ -165,9 +166,6 @@
     <t>SPINDLE scorer 2  (trained on Kornum)</t>
   </si>
   <si>
-    <t>The metrics in the Kornum data are missing for the whole model</t>
-  </si>
-  <si>
     <t>Question 2: How does the SPINDLE model perform trained on Kornum? And how well does it generalize to the SPINDLE dataset?</t>
   </si>
   <si>
@@ -244,9 +242,6 @@
   </si>
   <si>
     <t>SPINDLE (scorer 2)</t>
-  </si>
-  <si>
-    <t>Percentage of corrected epochs</t>
   </si>
   <si>
     <t>Table 8: Percentage of corrections respect to the total number of corrected epochs per stage</t>
@@ -471,10 +466,28 @@
     </r>
   </si>
   <si>
-    <t>Move tthis table to 2nd place</t>
-  </si>
-  <si>
     <t>APPENDIX</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>% of corrected epochs</t>
+  </si>
+  <si>
+    <t>Model trained on SPINDLE</t>
+  </si>
+  <si>
+    <t>SPINDLE scorer 1  (trained on SPINDLE)</t>
+  </si>
+  <si>
+    <t>SPINDLE scorer 2  (trained on SPINDLE)</t>
+  </si>
+  <si>
+    <t>Ratio respect to the total number of corrected epochs in that dataset</t>
+  </si>
+  <si>
+    <t>Ratio respect to the number of epochs of that class in that dataset</t>
   </si>
 </sst>
 </file>
@@ -527,7 +540,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -667,11 +680,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -711,9 +737,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -783,6 +806,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -852,9 +883,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -877,6 +905,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1221,7 +1252,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1229,16 +1260,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3A6A14-A908-4BE5-8AFF-E961BF99BC3C}">
-  <dimension ref="A2:Z113"/>
+  <dimension ref="A2:Z119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
   </cols>
@@ -1254,38 +1285,38 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N4" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="61"/>
+      <c r="N4" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="64"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58" t="s">
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58" t="s">
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="64"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="67"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1321,94 +1352,94 @@
       <c r="K6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="62"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="64"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="67"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="31">
         <v>99</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="32">
         <v>100</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="33">
         <v>99</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="34">
         <v>99</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="32">
         <v>99</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="33">
         <v>99</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="34">
         <v>99</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="33">
         <v>98</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="33">
         <v>97</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="34">
         <v>98</v>
       </c>
-      <c r="N7" s="62"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="64"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="67"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="35">
         <v>98</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="36">
         <v>100</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="37">
         <v>98</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="38">
         <v>99</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="36">
         <v>99</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="37">
         <v>98</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="38">
         <v>98</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="37">
         <v>87</v>
       </c>
-      <c r="J8" s="40">
+      <c r="J8" s="37">
         <v>100</v>
       </c>
-      <c r="K8" s="41">
+      <c r="K8" s="38">
         <v>93</v>
       </c>
-      <c r="N8" s="62"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="64"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="67"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -1424,115 +1455,115 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="64"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="67"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="31">
         <v>99</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="32">
         <v>100</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="33">
         <v>99</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="34">
         <v>99</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="32">
         <v>99</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="33">
         <v>99</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="34">
         <v>99</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="33">
         <v>98</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="33">
         <v>97</v>
       </c>
-      <c r="K10" s="37">
+      <c r="K10" s="34">
         <v>98</v>
       </c>
-      <c r="N10" s="62"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="64"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="67"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="35">
         <v>98</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="36">
         <v>100</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="37">
         <v>97</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="38">
         <v>98</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="36">
         <v>97</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="37">
         <v>98</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="38">
         <v>98</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="37">
         <v>90</v>
       </c>
-      <c r="J11" s="40">
+      <c r="J11" s="37">
         <v>99</v>
       </c>
-      <c r="K11" s="41">
+      <c r="K11" s="38">
         <v>94</v>
       </c>
-      <c r="N11" s="65"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="67"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="70"/>
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N14" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="84"/>
+      <c r="N14" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="87"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N15" s="85"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="86"/>
-      <c r="S15" s="87"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="89"/>
+      <c r="R15" s="89"/>
+      <c r="S15" s="90"/>
     </row>
     <row r="16" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
@@ -1541,12 +1572,12 @@
       <c r="C16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N16" s="85"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="86"/>
-      <c r="S16" s="87"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="90"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -1558,12 +1589,12 @@
       <c r="C17" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="85"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="86"/>
-      <c r="S17" s="87"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="90"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -1575,12 +1606,12 @@
       <c r="C18" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="85"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="86"/>
-      <c r="S18" s="87"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="89"/>
+      <c r="Q18" s="89"/>
+      <c r="R18" s="89"/>
+      <c r="S18" s="90"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -1592,32 +1623,32 @@
       <c r="C19" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="N19" s="88"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="89"/>
-      <c r="R19" s="89"/>
-      <c r="S19" s="90"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="92"/>
+      <c r="S19" s="93"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -1644,7 +1675,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
@@ -1658,36 +1689,36 @@
       </c>
     </row>
     <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58" t="s">
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58" t="s">
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="P31" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q31" s="75"/>
-      <c r="R31" s="75"/>
-      <c r="S31" s="75"/>
-      <c r="T31" s="75"/>
-      <c r="U31" s="75"/>
-      <c r="V31" s="75"/>
-      <c r="W31" s="75"/>
-      <c r="X31" s="75"/>
-      <c r="Y31" s="76"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="P31" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q31" s="77"/>
+      <c r="R31" s="77"/>
+      <c r="S31" s="77"/>
+      <c r="T31" s="77"/>
+      <c r="U31" s="77"/>
+      <c r="V31" s="77"/>
+      <c r="W31" s="77"/>
+      <c r="X31" s="77"/>
+      <c r="Y31" s="78"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
@@ -1727,550 +1758,545 @@
       <c r="N32" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="P32" s="77"/>
-      <c r="Q32" s="78"/>
-      <c r="R32" s="78"/>
-      <c r="S32" s="78"/>
-      <c r="T32" s="78"/>
-      <c r="U32" s="78"/>
-      <c r="V32" s="78"/>
-      <c r="W32" s="78"/>
-      <c r="X32" s="78"/>
-      <c r="Y32" s="79"/>
+      <c r="P32" s="79"/>
+      <c r="Q32" s="80"/>
+      <c r="R32" s="80"/>
+      <c r="S32" s="80"/>
+      <c r="T32" s="80"/>
+      <c r="U32" s="80"/>
+      <c r="V32" s="80"/>
+      <c r="W32" s="80"/>
+      <c r="X32" s="80"/>
+      <c r="Y32" s="81"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="68" t="s">
+      <c r="A33" s="71" t="s">
         <v>28</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="73">
+      <c r="C33" s="76">
         <v>0.95199999999999996</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D33" s="23">
         <v>0.98199999999999998</v>
       </c>
-      <c r="E33" s="26">
+      <c r="E33" s="23">
         <v>0.96499999999999997</v>
       </c>
-      <c r="F33" s="27">
+      <c r="F33" s="24">
         <v>0.97699999999999998</v>
       </c>
-      <c r="G33" s="73">
+      <c r="G33" s="76">
         <v>0.95199999999999996</v>
       </c>
-      <c r="H33" s="26">
+      <c r="H33" s="23">
         <v>0.99299999999999999</v>
       </c>
-      <c r="I33" s="26">
+      <c r="I33" s="23">
         <v>0.94399999999999995</v>
       </c>
-      <c r="J33" s="27">
+      <c r="J33" s="24">
         <v>0.96799999999999997</v>
       </c>
-      <c r="K33" s="73">
+      <c r="K33" s="76">
         <v>0.94599999999999995</v>
       </c>
-      <c r="L33" s="26">
+      <c r="L33" s="23">
         <v>0.97199999999999998</v>
       </c>
-      <c r="M33" s="26">
+      <c r="M33" s="23">
         <v>0.96199999999999997</v>
       </c>
-      <c r="N33" s="27">
+      <c r="N33" s="24">
         <v>0.96699999999999997</v>
       </c>
-      <c r="P33" s="77"/>
-      <c r="Q33" s="78"/>
-      <c r="R33" s="78"/>
-      <c r="S33" s="78"/>
-      <c r="T33" s="78"/>
-      <c r="U33" s="78"/>
-      <c r="V33" s="78"/>
-      <c r="W33" s="78"/>
-      <c r="X33" s="78"/>
-      <c r="Y33" s="79"/>
+      <c r="P33" s="79"/>
+      <c r="Q33" s="80"/>
+      <c r="R33" s="80"/>
+      <c r="S33" s="80"/>
+      <c r="T33" s="80"/>
+      <c r="U33" s="80"/>
+      <c r="V33" s="80"/>
+      <c r="W33" s="80"/>
+      <c r="X33" s="80"/>
+      <c r="Y33" s="81"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="71"/>
-      <c r="D34" s="28">
+      <c r="C34" s="74"/>
+      <c r="D34" s="25">
         <v>0.94599999999999995</v>
       </c>
-      <c r="E34" s="28">
+      <c r="E34" s="25">
         <v>0.93799999999999994</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="26">
         <v>0.94199999999999995</v>
       </c>
-      <c r="G34" s="71"/>
-      <c r="H34" s="28">
+      <c r="G34" s="74"/>
+      <c r="H34" s="25">
         <v>0.94099999999999995</v>
       </c>
-      <c r="I34" s="28">
+      <c r="I34" s="25">
         <v>0.96</v>
       </c>
-      <c r="J34" s="29">
+      <c r="J34" s="26">
         <v>0.95099999999999996</v>
       </c>
-      <c r="K34" s="71"/>
-      <c r="L34" s="28">
+      <c r="K34" s="74"/>
+      <c r="L34" s="25">
         <v>0.97399999999999998</v>
       </c>
-      <c r="M34" s="28">
+      <c r="M34" s="25">
         <v>0.92600000000000005</v>
       </c>
-      <c r="N34" s="29">
+      <c r="N34" s="26">
         <v>0.94899999999999995</v>
       </c>
-      <c r="P34" s="77"/>
-      <c r="Q34" s="78"/>
-      <c r="R34" s="78"/>
-      <c r="S34" s="78"/>
-      <c r="T34" s="78"/>
-      <c r="U34" s="78"/>
-      <c r="V34" s="78"/>
-      <c r="W34" s="78"/>
-      <c r="X34" s="78"/>
-      <c r="Y34" s="79"/>
+      <c r="P34" s="79"/>
+      <c r="Q34" s="80"/>
+      <c r="R34" s="80"/>
+      <c r="S34" s="80"/>
+      <c r="T34" s="80"/>
+      <c r="U34" s="80"/>
+      <c r="V34" s="80"/>
+      <c r="W34" s="80"/>
+      <c r="X34" s="80"/>
+      <c r="Y34" s="81"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="70"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="72"/>
-      <c r="D35" s="30">
+      <c r="C35" s="75"/>
+      <c r="D35" s="27">
         <v>0.76</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E35" s="27">
         <v>0.92</v>
       </c>
-      <c r="F35" s="31">
+      <c r="F35" s="28">
         <v>0.83199999999999996</v>
       </c>
-      <c r="G35" s="72"/>
-      <c r="H35" s="30">
+      <c r="G35" s="75"/>
+      <c r="H35" s="27">
         <v>0.77500000000000002</v>
       </c>
-      <c r="I35" s="30">
+      <c r="I35" s="27">
         <v>0.96499999999999997</v>
       </c>
-      <c r="J35" s="31">
+      <c r="J35" s="28">
         <v>0.86</v>
       </c>
-      <c r="K35" s="72"/>
-      <c r="L35" s="30">
+      <c r="K35" s="75"/>
+      <c r="L35" s="27">
         <v>0.69399999999999995</v>
       </c>
-      <c r="M35" s="30">
+      <c r="M35" s="27">
         <v>0.97899999999999998</v>
       </c>
-      <c r="N35" s="31">
+      <c r="N35" s="28">
         <v>0.81200000000000006</v>
       </c>
-      <c r="P35" s="77"/>
-      <c r="Q35" s="78"/>
-      <c r="R35" s="78"/>
-      <c r="S35" s="78"/>
-      <c r="T35" s="78"/>
-      <c r="U35" s="78"/>
-      <c r="V35" s="78"/>
-      <c r="W35" s="78"/>
-      <c r="X35" s="78"/>
-      <c r="Y35" s="79"/>
+      <c r="P35" s="79"/>
+      <c r="Q35" s="80"/>
+      <c r="R35" s="80"/>
+      <c r="S35" s="80"/>
+      <c r="T35" s="80"/>
+      <c r="U35" s="80"/>
+      <c r="V35" s="80"/>
+      <c r="W35" s="80"/>
+      <c r="X35" s="80"/>
+      <c r="Y35" s="81"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="68" t="s">
+      <c r="A36" s="71" t="s">
         <v>29</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="73">
+      <c r="C36" s="76">
         <v>0.95399999999999996</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D36" s="23">
         <v>0.98599999999999999</v>
       </c>
-      <c r="E36" s="26">
+      <c r="E36" s="23">
         <v>0.95599999999999996</v>
       </c>
-      <c r="F36" s="27">
+      <c r="F36" s="24">
         <v>0.97099999999999997</v>
       </c>
-      <c r="G36" s="73">
+      <c r="G36" s="76">
         <v>0.95199999999999996</v>
       </c>
-      <c r="H36" s="26">
+      <c r="H36" s="23">
         <v>0.99399999999999999</v>
       </c>
-      <c r="I36" s="26">
+      <c r="I36" s="23">
         <v>0.93400000000000005</v>
       </c>
-      <c r="J36" s="27">
+      <c r="J36" s="24">
         <v>0.96299999999999997</v>
       </c>
-      <c r="K36" s="73">
+      <c r="K36" s="76">
         <v>0.95199999999999996</v>
       </c>
-      <c r="L36" s="26">
+      <c r="L36" s="23">
         <v>0.97899999999999998</v>
       </c>
-      <c r="M36" s="26">
+      <c r="M36" s="23">
         <v>0.94799999999999995</v>
       </c>
-      <c r="N36" s="27">
+      <c r="N36" s="24">
         <v>0.96299999999999997</v>
       </c>
-      <c r="P36" s="77"/>
-      <c r="Q36" s="78"/>
-      <c r="R36" s="78"/>
-      <c r="S36" s="78"/>
-      <c r="T36" s="78"/>
-      <c r="U36" s="78"/>
-      <c r="V36" s="78"/>
-      <c r="W36" s="78"/>
-      <c r="X36" s="78"/>
-      <c r="Y36" s="79"/>
+      <c r="P36" s="79"/>
+      <c r="Q36" s="80"/>
+      <c r="R36" s="80"/>
+      <c r="S36" s="80"/>
+      <c r="T36" s="80"/>
+      <c r="U36" s="80"/>
+      <c r="V36" s="80"/>
+      <c r="W36" s="80"/>
+      <c r="X36" s="80"/>
+      <c r="Y36" s="81"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="69"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="28">
+      <c r="C37" s="74"/>
+      <c r="D37" s="25">
         <v>0.92900000000000005</v>
       </c>
-      <c r="E37" s="28">
+      <c r="E37" s="25">
         <v>0.95799999999999996</v>
       </c>
-      <c r="F37" s="29">
+      <c r="F37" s="26">
         <v>0.94299999999999995</v>
       </c>
-      <c r="G37" s="71"/>
-      <c r="H37" s="28">
+      <c r="G37" s="74"/>
+      <c r="H37" s="25">
         <v>0.91900000000000004</v>
       </c>
-      <c r="I37" s="28">
+      <c r="I37" s="25">
         <v>0.97499999999999998</v>
       </c>
-      <c r="J37" s="29">
+      <c r="J37" s="26">
         <v>0.94599999999999995</v>
       </c>
-      <c r="K37" s="71"/>
-      <c r="L37" s="28">
+      <c r="K37" s="74"/>
+      <c r="L37" s="25">
         <v>0.95499999999999996</v>
       </c>
-      <c r="M37" s="28">
+      <c r="M37" s="25">
         <v>0.95199999999999996</v>
       </c>
-      <c r="N37" s="29">
+      <c r="N37" s="26">
         <v>0.95399999999999996</v>
       </c>
-      <c r="P37" s="77"/>
-      <c r="Q37" s="78"/>
-      <c r="R37" s="78"/>
-      <c r="S37" s="78"/>
-      <c r="T37" s="78"/>
-      <c r="U37" s="78"/>
-      <c r="V37" s="78"/>
-      <c r="W37" s="78"/>
-      <c r="X37" s="78"/>
-      <c r="Y37" s="79"/>
+      <c r="P37" s="79"/>
+      <c r="Q37" s="80"/>
+      <c r="R37" s="80"/>
+      <c r="S37" s="80"/>
+      <c r="T37" s="80"/>
+      <c r="U37" s="80"/>
+      <c r="V37" s="80"/>
+      <c r="W37" s="80"/>
+      <c r="X37" s="80"/>
+      <c r="Y37" s="81"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="70"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="72"/>
-      <c r="D38" s="30">
+      <c r="C38" s="75"/>
+      <c r="D38" s="27">
         <v>0.82799999999999996</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E38" s="27">
         <v>0.90400000000000003</v>
       </c>
-      <c r="F38" s="31">
+      <c r="F38" s="28">
         <v>0.86399999999999999</v>
       </c>
-      <c r="G38" s="72"/>
-      <c r="H38" s="30">
+      <c r="G38" s="75"/>
+      <c r="H38" s="27">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I38" s="30">
+      <c r="I38" s="27">
         <v>0.95399999999999996</v>
       </c>
-      <c r="J38" s="31">
+      <c r="J38" s="28">
         <v>0.90800000000000003</v>
       </c>
-      <c r="K38" s="72"/>
-      <c r="L38" s="30">
+      <c r="K38" s="75"/>
+      <c r="L38" s="27">
         <v>0.78600000000000003</v>
       </c>
-      <c r="M38" s="30">
+      <c r="M38" s="27">
         <v>0.97099999999999997</v>
       </c>
-      <c r="N38" s="31">
+      <c r="N38" s="28">
         <v>0.86899999999999999</v>
       </c>
-      <c r="P38" s="77"/>
-      <c r="Q38" s="78"/>
-      <c r="R38" s="78"/>
-      <c r="S38" s="78"/>
-      <c r="T38" s="78"/>
-      <c r="U38" s="78"/>
-      <c r="V38" s="78"/>
-      <c r="W38" s="78"/>
-      <c r="X38" s="78"/>
-      <c r="Y38" s="79"/>
+      <c r="P38" s="79"/>
+      <c r="Q38" s="80"/>
+      <c r="R38" s="80"/>
+      <c r="S38" s="80"/>
+      <c r="T38" s="80"/>
+      <c r="U38" s="80"/>
+      <c r="V38" s="80"/>
+      <c r="W38" s="80"/>
+      <c r="X38" s="80"/>
+      <c r="Y38" s="81"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A39" s="68" t="s">
+      <c r="A39" s="71" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="71">
+      <c r="C39" s="74">
         <v>0.92200000000000004</v>
       </c>
-      <c r="D39" s="28">
+      <c r="D39" s="25">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="E39" s="28">
+      <c r="E39" s="25">
         <v>0.72699999999999998</v>
       </c>
-      <c r="F39" s="29">
+      <c r="F39" s="26">
         <v>0.11899999999999999</v>
       </c>
-      <c r="G39" s="71">
+      <c r="G39" s="74">
         <v>0.78600000000000003</v>
       </c>
-      <c r="H39" s="28">
+      <c r="H39" s="25">
         <v>0.502</v>
       </c>
-      <c r="I39" s="28">
+      <c r="I39" s="25">
         <v>0.185</v>
       </c>
-      <c r="J39" s="29">
+      <c r="J39" s="26">
         <v>0.27</v>
       </c>
-      <c r="K39" s="71">
+      <c r="K39" s="74">
         <v>0.84</v>
       </c>
-      <c r="L39" s="28">
+      <c r="L39" s="25">
         <v>0.56000000000000005</v>
       </c>
-      <c r="M39" s="28">
+      <c r="M39" s="25">
         <v>0.28699999999999998</v>
       </c>
-      <c r="N39" s="32">
+      <c r="N39" s="29">
         <v>0.379</v>
       </c>
-      <c r="P39" s="77"/>
-      <c r="Q39" s="78"/>
-      <c r="R39" s="78"/>
-      <c r="S39" s="78"/>
-      <c r="T39" s="78"/>
-      <c r="U39" s="78"/>
-      <c r="V39" s="78"/>
-      <c r="W39" s="78"/>
-      <c r="X39" s="78"/>
-      <c r="Y39" s="79"/>
+      <c r="P39" s="79"/>
+      <c r="Q39" s="80"/>
+      <c r="R39" s="80"/>
+      <c r="S39" s="80"/>
+      <c r="T39" s="80"/>
+      <c r="U39" s="80"/>
+      <c r="V39" s="80"/>
+      <c r="W39" s="80"/>
+      <c r="X39" s="80"/>
+      <c r="Y39" s="81"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" s="69"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="71"/>
-      <c r="D40" s="28">
+      <c r="C40" s="74"/>
+      <c r="D40" s="25">
         <v>0.98499999999999999</v>
       </c>
-      <c r="E40" s="28">
+      <c r="E40" s="25">
         <v>0.90300000000000002</v>
       </c>
-      <c r="F40" s="29">
+      <c r="F40" s="26">
         <v>0.94199999999999995</v>
       </c>
-      <c r="G40" s="71"/>
-      <c r="H40" s="28">
+      <c r="G40" s="74"/>
+      <c r="H40" s="25">
         <v>0.84699999999999998</v>
       </c>
-      <c r="I40" s="28">
+      <c r="I40" s="25">
         <v>0.86399999999999999</v>
       </c>
-      <c r="J40" s="29">
+      <c r="J40" s="26">
         <v>0.85599999999999998</v>
       </c>
-      <c r="K40" s="71"/>
-      <c r="L40" s="28">
+      <c r="K40" s="74"/>
+      <c r="L40" s="25">
         <v>0.79600000000000004</v>
       </c>
-      <c r="M40" s="28">
+      <c r="M40" s="25">
         <v>0.88400000000000001</v>
       </c>
-      <c r="N40" s="32">
+      <c r="N40" s="29">
         <v>0.83799999999999997</v>
       </c>
-      <c r="P40" s="77"/>
-      <c r="Q40" s="78"/>
-      <c r="R40" s="78"/>
-      <c r="S40" s="78"/>
-      <c r="T40" s="78"/>
-      <c r="U40" s="78"/>
-      <c r="V40" s="78"/>
-      <c r="W40" s="78"/>
-      <c r="X40" s="78"/>
-      <c r="Y40" s="79"/>
+      <c r="P40" s="79"/>
+      <c r="Q40" s="80"/>
+      <c r="R40" s="80"/>
+      <c r="S40" s="80"/>
+      <c r="T40" s="80"/>
+      <c r="U40" s="80"/>
+      <c r="V40" s="80"/>
+      <c r="W40" s="80"/>
+      <c r="X40" s="80"/>
+      <c r="Y40" s="81"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" s="69"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="71"/>
-      <c r="D41" s="28">
+      <c r="C41" s="74"/>
+      <c r="D41" s="25">
         <v>0.92900000000000005</v>
       </c>
-      <c r="E41" s="28">
+      <c r="E41" s="25">
         <v>0.95499999999999996</v>
       </c>
-      <c r="F41" s="29">
+      <c r="F41" s="26">
         <v>0.94199999999999995</v>
       </c>
-      <c r="G41" s="71"/>
-      <c r="H41" s="28">
+      <c r="G41" s="74"/>
+      <c r="H41" s="25">
         <v>0.77100000000000002</v>
       </c>
-      <c r="I41" s="28">
+      <c r="I41" s="25">
         <v>0.97399999999999998</v>
       </c>
-      <c r="J41" s="29">
+      <c r="J41" s="26">
         <v>0.86099999999999999</v>
       </c>
-      <c r="K41" s="71"/>
-      <c r="L41" s="28">
+      <c r="K41" s="74"/>
+      <c r="L41" s="25">
         <v>0.94899999999999995</v>
       </c>
-      <c r="M41" s="28">
+      <c r="M41" s="25">
         <v>0.94899999999999995</v>
       </c>
-      <c r="N41" s="32">
+      <c r="N41" s="29">
         <v>0.94899999999999995</v>
       </c>
-      <c r="P41" s="77"/>
-      <c r="Q41" s="78"/>
-      <c r="R41" s="78"/>
-      <c r="S41" s="78"/>
-      <c r="T41" s="78"/>
-      <c r="U41" s="78"/>
-      <c r="V41" s="78"/>
-      <c r="W41" s="78"/>
-      <c r="X41" s="78"/>
-      <c r="Y41" s="79"/>
+      <c r="P41" s="79"/>
+      <c r="Q41" s="80"/>
+      <c r="R41" s="80"/>
+      <c r="S41" s="80"/>
+      <c r="T41" s="80"/>
+      <c r="U41" s="80"/>
+      <c r="V41" s="80"/>
+      <c r="W41" s="80"/>
+      <c r="X41" s="80"/>
+      <c r="Y41" s="81"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="70"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="72"/>
-      <c r="D42" s="30">
+      <c r="C42" s="75"/>
+      <c r="D42" s="27">
         <v>0.82699999999999996</v>
       </c>
-      <c r="E42" s="30">
+      <c r="E42" s="27">
         <v>0.89900000000000002</v>
       </c>
-      <c r="F42" s="31">
+      <c r="F42" s="28">
         <v>0.86199999999999999</v>
       </c>
-      <c r="G42" s="72"/>
-      <c r="H42" s="30">
+      <c r="G42" s="75"/>
+      <c r="H42" s="27">
         <v>0.748</v>
       </c>
-      <c r="I42" s="30">
+      <c r="I42" s="27">
         <v>0.95</v>
       </c>
-      <c r="J42" s="31">
+      <c r="J42" s="28">
         <v>0.83699999999999997</v>
       </c>
-      <c r="K42" s="72"/>
-      <c r="L42" s="30">
+      <c r="K42" s="75"/>
+      <c r="L42" s="27">
         <v>0.746</v>
       </c>
-      <c r="M42" s="30">
+      <c r="M42" s="27">
         <v>0.96699999999999997</v>
       </c>
-      <c r="N42" s="33">
+      <c r="N42" s="30">
         <v>0.83799999999999997</v>
       </c>
-      <c r="P42" s="80"/>
-      <c r="Q42" s="81"/>
-      <c r="R42" s="81"/>
-      <c r="S42" s="81"/>
-      <c r="T42" s="81"/>
-      <c r="U42" s="81"/>
-      <c r="V42" s="81"/>
-      <c r="W42" s="81"/>
-      <c r="X42" s="81"/>
-      <c r="Y42" s="82"/>
+      <c r="P42" s="82"/>
+      <c r="Q42" s="83"/>
+      <c r="R42" s="83"/>
+      <c r="S42" s="83"/>
+      <c r="T42" s="83"/>
+      <c r="U42" s="83"/>
+      <c r="V42" s="83"/>
+      <c r="W42" s="83"/>
+      <c r="X42" s="83"/>
+      <c r="Y42" s="84"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C49" s="58" t="s">
+      <c r="C49" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="L49" s="58"/>
-      <c r="M49" s="58"/>
-      <c r="N49" s="58"/>
-      <c r="P49" s="74" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q49" s="60"/>
-      <c r="R49" s="60"/>
-      <c r="S49" s="60"/>
-      <c r="T49" s="60"/>
-      <c r="U49" s="60"/>
-      <c r="V49" s="60"/>
-      <c r="W49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="L49" s="61"/>
+      <c r="M49" s="61"/>
+      <c r="N49" s="61"/>
+      <c r="P49" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q49" s="63"/>
+      <c r="R49" s="63"/>
+      <c r="S49" s="63"/>
+      <c r="T49" s="63"/>
+      <c r="U49" s="63"/>
+      <c r="V49" s="63"/>
+      <c r="W49" s="64"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
@@ -2310,503 +2336,529 @@
       <c r="N50" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="P50" s="62"/>
-      <c r="Q50" s="63"/>
-      <c r="R50" s="63"/>
-      <c r="S50" s="63"/>
-      <c r="T50" s="63"/>
-      <c r="U50" s="63"/>
-      <c r="V50" s="63"/>
-      <c r="W50" s="64"/>
+      <c r="P50" s="65"/>
+      <c r="Q50" s="66"/>
+      <c r="R50" s="66"/>
+      <c r="S50" s="66"/>
+      <c r="T50" s="66"/>
+      <c r="U50" s="66"/>
+      <c r="V50" s="66"/>
+      <c r="W50" s="67"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A51" s="68" t="s">
+      <c r="A51" s="71" t="s">
         <v>28</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="55">
-        <v>0.94</v>
-      </c>
-      <c r="D51" s="42">
-        <v>0.95699999999999996</v>
-      </c>
-      <c r="E51" s="42">
-        <v>0.95599999999999996</v>
-      </c>
-      <c r="F51" s="27">
-        <v>0.95599999999999996</v>
-      </c>
-      <c r="G51" s="55">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="H51" s="26">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="I51" s="26">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="J51" s="27">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="K51" s="55">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="L51" s="26">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="M51" s="26">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="N51" s="27">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="P51" s="62"/>
-      <c r="Q51" s="63"/>
-      <c r="R51" s="63"/>
-      <c r="S51" s="63"/>
-      <c r="T51" s="63"/>
-      <c r="U51" s="63"/>
-      <c r="V51" s="63"/>
-      <c r="W51" s="64"/>
+      <c r="C51" s="58">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="D51" s="39">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="E51" s="39">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="F51" s="24">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="G51" s="58">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="H51" s="23">
+        <v>0.999</v>
+      </c>
+      <c r="I51" s="23">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="J51" s="24">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="K51" s="58">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="L51" s="23">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="M51" s="23">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="N51" s="24">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="P51" s="65"/>
+      <c r="Q51" s="66"/>
+      <c r="R51" s="66"/>
+      <c r="S51" s="66"/>
+      <c r="T51" s="66"/>
+      <c r="U51" s="66"/>
+      <c r="V51" s="66"/>
+      <c r="W51" s="67"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A52" s="69"/>
+      <c r="A52" s="72"/>
       <c r="B52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="56"/>
-      <c r="D52" s="43">
+      <c r="C52" s="59"/>
+      <c r="D52" s="40">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="E52" s="40">
         <v>0.94399999999999995</v>
       </c>
-      <c r="E52" s="43">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="F52" s="29">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="G52" s="56"/>
-      <c r="H52" s="28">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="I52" s="28">
+      <c r="F52" s="26">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="G52" s="59"/>
+      <c r="H52" s="25">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="I52" s="25">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="J52" s="26">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="K52" s="59"/>
+      <c r="L52" s="25">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="M52" s="25">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="N52" s="26">
         <v>0.96</v>
       </c>
-      <c r="J52" s="29">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="K52" s="56"/>
-      <c r="L52" s="28">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="M52" s="28">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="N52" s="29">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="P52" s="62"/>
-      <c r="Q52" s="63"/>
-      <c r="R52" s="63"/>
-      <c r="S52" s="63"/>
-      <c r="T52" s="63"/>
-      <c r="U52" s="63"/>
-      <c r="V52" s="63"/>
-      <c r="W52" s="64"/>
+      <c r="P52" s="65"/>
+      <c r="Q52" s="66"/>
+      <c r="R52" s="66"/>
+      <c r="S52" s="66"/>
+      <c r="T52" s="66"/>
+      <c r="U52" s="66"/>
+      <c r="V52" s="66"/>
+      <c r="W52" s="67"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A53" s="70"/>
+      <c r="A53" s="73"/>
       <c r="B53" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="57"/>
-      <c r="D53" s="44">
-        <v>0.77400000000000002</v>
-      </c>
-      <c r="E53" s="44">
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="F53" s="31">
-        <v>0.80900000000000005</v>
-      </c>
-      <c r="G53" s="57"/>
-      <c r="H53" s="30">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="I53" s="30">
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="J53" s="31">
+      <c r="C53" s="60"/>
+      <c r="D53" s="41">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="E53" s="41">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="F53" s="28">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="G53" s="60"/>
+      <c r="H53" s="27">
         <v>0.86</v>
       </c>
-      <c r="K53" s="57"/>
-      <c r="L53" s="30">
-        <v>0.69399999999999995</v>
-      </c>
-      <c r="M53" s="30">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="N53" s="31">
-        <v>0.81200000000000006</v>
-      </c>
-      <c r="P53" s="62"/>
-      <c r="Q53" s="63"/>
-      <c r="R53" s="63"/>
-      <c r="S53" s="63"/>
-      <c r="T53" s="63"/>
-      <c r="U53" s="63"/>
-      <c r="V53" s="63"/>
-      <c r="W53" s="64"/>
+      <c r="I53" s="27">
+        <v>0.998</v>
+      </c>
+      <c r="J53" s="28">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="K53" s="60"/>
+      <c r="L53" s="27">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="M53" s="27">
+        <v>0.998</v>
+      </c>
+      <c r="N53" s="28">
+        <v>0.874</v>
+      </c>
+      <c r="P53" s="65"/>
+      <c r="Q53" s="66"/>
+      <c r="R53" s="66"/>
+      <c r="S53" s="66"/>
+      <c r="T53" s="66"/>
+      <c r="U53" s="66"/>
+      <c r="V53" s="66"/>
+      <c r="W53" s="67"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A54" s="68" t="s">
+      <c r="A54" s="71" t="s">
         <v>29</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="55">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="D54" s="42">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="E54" s="42">
-        <v>0.95699999999999996</v>
-      </c>
-      <c r="F54" s="27">
+      <c r="C54" s="58">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="D54" s="39">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="E54" s="39">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="F54" s="24">
+        <v>0.96</v>
+      </c>
+      <c r="G54" s="58">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="H54" s="23">
+        <v>0.998</v>
+      </c>
+      <c r="I54" s="23">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="J54" s="24">
+        <v>0.97</v>
+      </c>
+      <c r="K54" s="58">
         <v>0.95899999999999996</v>
       </c>
-      <c r="G54" s="55">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="H54" s="26">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="I54" s="26">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="J54" s="27">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="K54" s="55">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="L54" s="26">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="M54" s="26">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="N54" s="27">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="P54" s="62"/>
-      <c r="Q54" s="63"/>
-      <c r="R54" s="63"/>
-      <c r="S54" s="63"/>
-      <c r="T54" s="63"/>
-      <c r="U54" s="63"/>
-      <c r="V54" s="63"/>
-      <c r="W54" s="64"/>
+      <c r="L54" s="23">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="M54" s="23">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="N54" s="24">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="P54" s="65"/>
+      <c r="Q54" s="66"/>
+      <c r="R54" s="66"/>
+      <c r="S54" s="66"/>
+      <c r="T54" s="66"/>
+      <c r="U54" s="66"/>
+      <c r="V54" s="66"/>
+      <c r="W54" s="67"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A55" s="69"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="56"/>
-      <c r="D55" s="43">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="E55" s="43">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="F55" s="29">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="G55" s="56"/>
-      <c r="H55" s="28">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="I55" s="28">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="J55" s="29">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="K55" s="56"/>
-      <c r="L55" s="28">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="M55" s="28">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="N55" s="29">
-        <v>0.95399999999999996</v>
-      </c>
-      <c r="P55" s="62"/>
-      <c r="Q55" s="63"/>
-      <c r="R55" s="63"/>
-      <c r="S55" s="63"/>
-      <c r="T55" s="63"/>
-      <c r="U55" s="63"/>
-      <c r="V55" s="63"/>
-      <c r="W55" s="64"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="40">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="E55" s="40">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="F55" s="26">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G55" s="59"/>
+      <c r="H55" s="25">
+        <v>0.94</v>
+      </c>
+      <c r="I55" s="25">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="J55" s="26">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="K55" s="59"/>
+      <c r="L55" s="25">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="M55" s="25">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="N55" s="26">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="P55" s="65"/>
+      <c r="Q55" s="66"/>
+      <c r="R55" s="66"/>
+      <c r="S55" s="66"/>
+      <c r="T55" s="66"/>
+      <c r="U55" s="66"/>
+      <c r="V55" s="66"/>
+      <c r="W55" s="67"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A56" s="70"/>
+      <c r="A56" s="73"/>
       <c r="B56" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="57"/>
-      <c r="D56" s="44">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="E56" s="44">
-        <v>0.84399999999999997</v>
-      </c>
-      <c r="F56" s="31">
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="G56" s="57"/>
-      <c r="H56" s="30">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="I56" s="30">
-        <v>0.95399999999999996</v>
-      </c>
-      <c r="J56" s="31">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="K56" s="57"/>
-      <c r="L56" s="30">
-        <v>0.78600000000000003</v>
-      </c>
-      <c r="M56" s="30">
-        <v>0.97099999999999997</v>
-      </c>
-      <c r="N56" s="31">
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="P56" s="62"/>
-      <c r="Q56" s="63"/>
-      <c r="R56" s="63"/>
-      <c r="S56" s="63"/>
-      <c r="T56" s="63"/>
-      <c r="U56" s="63"/>
-      <c r="V56" s="63"/>
-      <c r="W56" s="64"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="41">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="E56" s="41">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="F56" s="28">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="G56" s="60"/>
+      <c r="H56" s="27">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="I56" s="27">
+        <v>0.997</v>
+      </c>
+      <c r="J56" s="28">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="K56" s="60"/>
+      <c r="L56" s="27">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="M56" s="27">
+        <v>0.998</v>
+      </c>
+      <c r="N56" s="28">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="P56" s="65"/>
+      <c r="Q56" s="66"/>
+      <c r="R56" s="66"/>
+      <c r="S56" s="66"/>
+      <c r="T56" s="66"/>
+      <c r="U56" s="66"/>
+      <c r="V56" s="66"/>
+      <c r="W56" s="67"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A57" s="68" t="s">
+      <c r="A57" s="71" t="s">
         <v>30</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="55"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="55">
-        <v>0.78600000000000003</v>
-      </c>
-      <c r="H57" s="28">
-        <v>0.502</v>
-      </c>
-      <c r="I57" s="28">
-        <v>0.185</v>
-      </c>
-      <c r="J57" s="29">
-        <v>0.27</v>
-      </c>
-      <c r="K57" s="55">
-        <v>0.84</v>
-      </c>
-      <c r="L57" s="28">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="M57" s="28">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="N57" s="32">
-        <v>0.379</v>
-      </c>
-      <c r="P57" s="62"/>
-      <c r="Q57" s="63"/>
-      <c r="R57" s="63"/>
-      <c r="S57" s="63"/>
-      <c r="T57" s="63"/>
-      <c r="U57" s="63"/>
-      <c r="V57" s="63"/>
-      <c r="W57" s="64"/>
+      <c r="C57" s="58">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="D57" s="39">
+        <v>0.01</v>
+      </c>
+      <c r="E57" s="39">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="F57" s="42">
+        <v>0.02</v>
+      </c>
+      <c r="G57" s="58">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="H57" s="25">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="I57" s="25">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="J57" s="26">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="K57" s="58">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="L57" s="25">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="M57" s="25">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="N57" s="29">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="P57" s="65"/>
+      <c r="Q57" s="66"/>
+      <c r="R57" s="66"/>
+      <c r="S57" s="66"/>
+      <c r="T57" s="66"/>
+      <c r="U57" s="66"/>
+      <c r="V57" s="66"/>
+      <c r="W57" s="67"/>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A58" s="69"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="56"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="28">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="I58" s="28">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="J58" s="29">
-        <v>0.85599999999999998</v>
-      </c>
-      <c r="K58" s="56"/>
-      <c r="L58" s="28">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="M58" s="28">
-        <v>0.88400000000000001</v>
-      </c>
-      <c r="N58" s="32">
-        <v>0.83799999999999997</v>
-      </c>
-      <c r="P58" s="62"/>
-      <c r="Q58" s="63"/>
-      <c r="R58" s="63"/>
-      <c r="S58" s="63"/>
-      <c r="T58" s="63"/>
-      <c r="U58" s="63"/>
-      <c r="V58" s="63"/>
-      <c r="W58" s="64"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="40">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="E58" s="40">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="F58" s="29">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="G58" s="59"/>
+      <c r="H58" s="25">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="I58" s="25">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="J58" s="26">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="K58" s="59"/>
+      <c r="L58" s="25">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="M58" s="25">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="N58" s="29">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="P58" s="65"/>
+      <c r="Q58" s="66"/>
+      <c r="R58" s="66"/>
+      <c r="S58" s="66"/>
+      <c r="T58" s="66"/>
+      <c r="U58" s="66"/>
+      <c r="V58" s="66"/>
+      <c r="W58" s="67"/>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A59" s="69"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="56"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="28">
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="I59" s="28">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="J59" s="29">
+      <c r="C59" s="59"/>
+      <c r="D59" s="40">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E59" s="40">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="F59" s="29">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="G59" s="59"/>
+      <c r="H59" s="25">
         <v>0.86099999999999999</v>
       </c>
-      <c r="K59" s="56"/>
-      <c r="L59" s="28">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="M59" s="28">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="N59" s="32">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="P59" s="62"/>
-      <c r="Q59" s="63"/>
-      <c r="R59" s="63"/>
-      <c r="S59" s="63"/>
-      <c r="T59" s="63"/>
-      <c r="U59" s="63"/>
-      <c r="V59" s="63"/>
-      <c r="W59" s="64"/>
+      <c r="I59" s="25">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="J59" s="26">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="K59" s="59"/>
+      <c r="L59" s="25">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="M59" s="25">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="N59" s="29">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="P59" s="65"/>
+      <c r="Q59" s="66"/>
+      <c r="R59" s="66"/>
+      <c r="S59" s="66"/>
+      <c r="T59" s="66"/>
+      <c r="U59" s="66"/>
+      <c r="V59" s="66"/>
+      <c r="W59" s="67"/>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A60" s="70"/>
+      <c r="A60" s="73"/>
       <c r="B60" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="57"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="30">
-        <v>0.748</v>
-      </c>
-      <c r="I60" s="30">
-        <v>0.95</v>
-      </c>
-      <c r="J60" s="31">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="K60" s="57"/>
-      <c r="L60" s="30">
-        <v>0.746</v>
-      </c>
-      <c r="M60" s="30">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="N60" s="33">
-        <v>0.83799999999999997</v>
-      </c>
-      <c r="P60" s="65"/>
-      <c r="Q60" s="66"/>
-      <c r="R60" s="66"/>
-      <c r="S60" s="66"/>
-      <c r="T60" s="66"/>
-      <c r="U60" s="66"/>
-      <c r="V60" s="66"/>
-      <c r="W60" s="67"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="41">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="E60" s="41">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="F60" s="30">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="G60" s="60"/>
+      <c r="H60" s="27">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="I60" s="27">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="J60" s="28">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="K60" s="60"/>
+      <c r="L60" s="27">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="M60" s="27">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="N60" s="30">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="P60" s="68"/>
+      <c r="Q60" s="69"/>
+      <c r="R60" s="69"/>
+      <c r="S60" s="69"/>
+      <c r="T60" s="69"/>
+      <c r="U60" s="69"/>
+      <c r="V60" s="69"/>
+      <c r="W60" s="70"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F63" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="C65" s="58"/>
-      <c r="D65" s="58"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="58" t="s">
+      <c r="B65" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" s="61"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="H65" s="58"/>
-      <c r="I65" s="58"/>
-      <c r="J65" s="58"/>
-      <c r="K65" s="58"/>
-      <c r="L65" s="58" t="s">
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="61"/>
+      <c r="K65" s="61"/>
+      <c r="L65" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="M65" s="58"/>
-      <c r="N65" s="58"/>
-      <c r="O65" s="58"/>
-      <c r="P65" s="58"/>
-      <c r="R65" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="S65" s="83"/>
-      <c r="T65" s="83"/>
-      <c r="U65" s="83"/>
-      <c r="V65" s="83"/>
-      <c r="W65" s="83"/>
-      <c r="X65" s="83"/>
-      <c r="Y65" s="83"/>
-      <c r="Z65" s="84"/>
+      <c r="M65" s="61"/>
+      <c r="N65" s="61"/>
+      <c r="O65" s="61"/>
+      <c r="P65" s="61"/>
+      <c r="R65" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="S65" s="86"/>
+      <c r="T65" s="86"/>
+      <c r="U65" s="86"/>
+      <c r="V65" s="86"/>
+      <c r="W65" s="86"/>
+      <c r="X65" s="86"/>
+      <c r="Y65" s="86"/>
+      <c r="Z65" s="87"/>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B66" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C66" s="17" t="s">
         <v>10</v>
@@ -2818,10 +2870,10 @@
         <v>9</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H66" s="17" t="s">
         <v>10</v>
@@ -2833,10 +2885,10 @@
         <v>9</v>
       </c>
       <c r="K66" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L66" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M66" s="17" t="s">
         <v>10</v>
@@ -2848,185 +2900,188 @@
         <v>9</v>
       </c>
       <c r="P66" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="R66" s="88"/>
+      <c r="S66" s="89"/>
+      <c r="T66" s="89"/>
+      <c r="U66" s="89"/>
+      <c r="V66" s="89"/>
+      <c r="W66" s="89"/>
+      <c r="X66" s="89"/>
+      <c r="Y66" s="89"/>
+      <c r="Z66" s="90"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A67" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="B67" s="32">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="C67" s="33">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D67" s="33">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="E67" s="33">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="F67" s="34">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G67" s="32">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="H67" s="33">
+        <v>0.502</v>
+      </c>
+      <c r="I67" s="33">
+        <v>0.185</v>
+      </c>
+      <c r="J67" s="33">
+        <v>0.27</v>
+      </c>
+      <c r="K67" s="34">
+        <v>0.156</v>
+      </c>
+      <c r="L67" s="32">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="M67" s="33">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N67" s="33">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="O67" s="33">
+        <v>0.379</v>
+      </c>
+      <c r="P67" s="34">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="R67" s="88"/>
+      <c r="S67" s="89"/>
+      <c r="T67" s="89"/>
+      <c r="U67" s="89"/>
+      <c r="V67" s="89"/>
+      <c r="W67" s="89"/>
+      <c r="X67" s="89"/>
+      <c r="Y67" s="89"/>
+      <c r="Z67" s="90"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A68" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="R66" s="85"/>
-      <c r="S66" s="86"/>
-      <c r="T66" s="86"/>
-      <c r="U66" s="86"/>
-      <c r="V66" s="86"/>
-      <c r="W66" s="86"/>
-      <c r="X66" s="86"/>
-      <c r="Y66" s="86"/>
-      <c r="Z66" s="87"/>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A67" s="46">
-        <v>0.5</v>
-      </c>
-      <c r="B67" s="35">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="C67" s="36">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="D67" s="36">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="E67" s="36">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="F67" s="37">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="G67" s="35">
-        <v>0.82399999999999995</v>
-      </c>
-      <c r="H67" s="36">
-        <v>0.502</v>
-      </c>
-      <c r="I67" s="36">
+      <c r="B68" s="36">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="C68" s="37">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D68" s="37">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="E68" s="37">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F68" s="38">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G68" s="36">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="H68" s="37">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="I68" s="37">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="J68" s="37">
+        <v>0.312</v>
+      </c>
+      <c r="K68" s="38">
         <v>0.185</v>
       </c>
-      <c r="J67" s="36">
-        <v>0.27</v>
-      </c>
-      <c r="K67" s="37">
-        <v>0.156</v>
-      </c>
-      <c r="L67" s="35">
-        <v>0.88100000000000001</v>
-      </c>
-      <c r="M67" s="36">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N67" s="36">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="O67" s="36">
-        <v>0.379</v>
-      </c>
-      <c r="P67" s="37">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="R67" s="85"/>
-      <c r="S67" s="86"/>
-      <c r="T67" s="86"/>
-      <c r="U67" s="86"/>
-      <c r="V67" s="86"/>
-      <c r="W67" s="86"/>
-      <c r="X67" s="86"/>
-      <c r="Y67" s="86"/>
-      <c r="Z67" s="87"/>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A68" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B68" s="39">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="C68" s="40">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="D68" s="40">
-        <v>0.77800000000000002</v>
-      </c>
-      <c r="E68" s="40">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="F68" s="41">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="G68" s="39">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="H68" s="40">
-        <v>0.38800000000000001</v>
-      </c>
-      <c r="I68" s="40">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="J68" s="40">
-        <v>0.312</v>
-      </c>
-      <c r="K68" s="41">
-        <v>0.185</v>
-      </c>
-      <c r="L68" s="39">
+      <c r="L68" s="36">
         <v>0.85899999999999999</v>
       </c>
-      <c r="M68" s="40">
+      <c r="M68" s="37">
         <v>0.44</v>
       </c>
-      <c r="N68" s="40">
+      <c r="N68" s="37">
         <v>0.41299999999999998</v>
       </c>
-      <c r="O68" s="40">
+      <c r="O68" s="37">
         <v>0.42599999999999999</v>
       </c>
-      <c r="P68" s="41">
+      <c r="P68" s="38">
         <v>0.27100000000000002</v>
       </c>
-      <c r="R68" s="85"/>
-      <c r="S68" s="86"/>
-      <c r="T68" s="86"/>
-      <c r="U68" s="86"/>
-      <c r="V68" s="86"/>
-      <c r="W68" s="86"/>
-      <c r="X68" s="86"/>
-      <c r="Y68" s="86"/>
-      <c r="Z68" s="87"/>
+      <c r="R68" s="88"/>
+      <c r="S68" s="89"/>
+      <c r="T68" s="89"/>
+      <c r="U68" s="89"/>
+      <c r="V68" s="89"/>
+      <c r="W68" s="89"/>
+      <c r="X68" s="89"/>
+      <c r="Y68" s="89"/>
+      <c r="Z68" s="90"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="R69" s="88"/>
-      <c r="S69" s="89"/>
-      <c r="T69" s="89"/>
-      <c r="U69" s="89"/>
-      <c r="V69" s="89"/>
-      <c r="W69" s="89"/>
-      <c r="X69" s="89"/>
-      <c r="Y69" s="89"/>
-      <c r="Z69" s="90"/>
+      <c r="R69" s="91"/>
+      <c r="S69" s="92"/>
+      <c r="T69" s="92"/>
+      <c r="U69" s="92"/>
+      <c r="V69" s="92"/>
+      <c r="W69" s="92"/>
+      <c r="X69" s="92"/>
+      <c r="Y69" s="92"/>
+      <c r="Z69" s="93"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="F71" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C73" s="58" t="s">
+      <c r="C73" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="D73" s="58"/>
-      <c r="E73" s="58"/>
-      <c r="F73" s="58"/>
-      <c r="G73" s="58" t="s">
+      <c r="D73" s="61"/>
+      <c r="E73" s="61"/>
+      <c r="F73" s="61"/>
+      <c r="G73" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="H73" s="58"/>
-      <c r="I73" s="58"/>
-      <c r="J73" s="58"/>
-      <c r="K73" s="58" t="s">
+      <c r="H73" s="61"/>
+      <c r="I73" s="61"/>
+      <c r="J73" s="61"/>
+      <c r="K73" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="L73" s="58"/>
-      <c r="M73" s="58"/>
-      <c r="N73" s="58"/>
-      <c r="P73" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q73" s="60"/>
-      <c r="R73" s="60"/>
-      <c r="S73" s="60"/>
-      <c r="T73" s="60"/>
-      <c r="U73" s="60"/>
-      <c r="V73" s="61"/>
+      <c r="L73" s="61"/>
+      <c r="M73" s="61"/>
+      <c r="N73" s="61"/>
+      <c r="P73" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q73" s="63"/>
+      <c r="R73" s="63"/>
+      <c r="S73" s="63"/>
+      <c r="T73" s="63"/>
+      <c r="U73" s="63"/>
+      <c r="V73" s="64"/>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C74" s="4" t="s">
@@ -3065,829 +3120,941 @@
       <c r="N74" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="P74" s="62"/>
-      <c r="Q74" s="63"/>
-      <c r="R74" s="63"/>
-      <c r="S74" s="63"/>
-      <c r="T74" s="63"/>
-      <c r="U74" s="63"/>
-      <c r="V74" s="64"/>
+      <c r="P74" s="65"/>
+      <c r="Q74" s="66"/>
+      <c r="R74" s="66"/>
+      <c r="S74" s="66"/>
+      <c r="T74" s="66"/>
+      <c r="U74" s="66"/>
+      <c r="V74" s="67"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="53" t="s">
-        <v>53</v>
+      <c r="A75" s="56" t="s">
+        <v>52</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="55"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="55">
+      <c r="C75" s="58"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="58">
         <v>0.78500000000000003</v>
       </c>
-      <c r="H75" s="26">
+      <c r="H75" s="23">
         <v>0.84699999999999998</v>
       </c>
-      <c r="I75" s="26">
+      <c r="I75" s="23">
         <v>0.86399999999999999</v>
       </c>
-      <c r="J75" s="27">
+      <c r="J75" s="24">
         <v>0.85499999999999998</v>
       </c>
-      <c r="K75" s="55">
+      <c r="K75" s="58">
         <v>0.83899999999999997</v>
       </c>
-      <c r="L75" s="26">
+      <c r="L75" s="23">
         <v>0.79600000000000004</v>
       </c>
-      <c r="M75" s="26">
+      <c r="M75" s="23">
         <v>0.88300000000000001</v>
       </c>
-      <c r="N75" s="27">
+      <c r="N75" s="24">
         <v>0.83799999999999997</v>
       </c>
-      <c r="P75" s="62"/>
-      <c r="Q75" s="63"/>
-      <c r="R75" s="63"/>
-      <c r="S75" s="63"/>
-      <c r="T75" s="63"/>
-      <c r="U75" s="63"/>
-      <c r="V75" s="64"/>
+      <c r="P75" s="65"/>
+      <c r="Q75" s="66"/>
+      <c r="R75" s="66"/>
+      <c r="S75" s="66"/>
+      <c r="T75" s="66"/>
+      <c r="U75" s="66"/>
+      <c r="V75" s="67"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" s="53"/>
+      <c r="A76" s="56"/>
       <c r="B76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="56"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="56"/>
-      <c r="H76" s="28">
+      <c r="C76" s="59"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="59"/>
+      <c r="H76" s="25">
         <v>0.77100000000000002</v>
       </c>
-      <c r="I76" s="28">
+      <c r="I76" s="25">
         <v>0.97299999999999998</v>
       </c>
-      <c r="J76" s="29">
+      <c r="J76" s="26">
         <v>0.86099999999999999</v>
       </c>
-      <c r="K76" s="56"/>
-      <c r="L76" s="28">
+      <c r="K76" s="59"/>
+      <c r="L76" s="25">
         <v>0.94899999999999995</v>
       </c>
-      <c r="M76" s="28">
+      <c r="M76" s="25">
         <v>0.94799999999999995</v>
       </c>
-      <c r="N76" s="29">
+      <c r="N76" s="26">
         <v>0.94899999999999995</v>
       </c>
-      <c r="P76" s="62"/>
-      <c r="Q76" s="63"/>
-      <c r="R76" s="63"/>
-      <c r="S76" s="63"/>
-      <c r="T76" s="63"/>
-      <c r="U76" s="63"/>
-      <c r="V76" s="64"/>
+      <c r="P76" s="65"/>
+      <c r="Q76" s="66"/>
+      <c r="R76" s="66"/>
+      <c r="S76" s="66"/>
+      <c r="T76" s="66"/>
+      <c r="U76" s="66"/>
+      <c r="V76" s="67"/>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" s="53"/>
+      <c r="A77" s="56"/>
       <c r="B77" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C77" s="57"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="44"/>
-      <c r="F77" s="31"/>
-      <c r="G77" s="57"/>
-      <c r="H77" s="30">
+      <c r="C77" s="60"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="27">
         <v>0.74</v>
       </c>
-      <c r="I77" s="30">
+      <c r="I77" s="27">
         <v>0.94899999999999995</v>
       </c>
-      <c r="J77" s="31">
+      <c r="J77" s="28">
         <v>0.83199999999999996</v>
       </c>
-      <c r="K77" s="57"/>
-      <c r="L77" s="30">
+      <c r="K77" s="60"/>
+      <c r="L77" s="27">
         <v>0.73699999999999999</v>
       </c>
-      <c r="M77" s="30">
+      <c r="M77" s="27">
         <v>0.96699999999999997</v>
       </c>
-      <c r="N77" s="31">
+      <c r="N77" s="28">
         <v>0.83699999999999997</v>
       </c>
-      <c r="P77" s="62"/>
-      <c r="Q77" s="63"/>
-      <c r="R77" s="63"/>
-      <c r="S77" s="63"/>
-      <c r="T77" s="63"/>
-      <c r="U77" s="63"/>
-      <c r="V77" s="64"/>
+      <c r="P77" s="65"/>
+      <c r="Q77" s="66"/>
+      <c r="R77" s="66"/>
+      <c r="S77" s="66"/>
+      <c r="T77" s="66"/>
+      <c r="U77" s="66"/>
+      <c r="V77" s="67"/>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A78" s="53" t="s">
-        <v>54</v>
+      <c r="A78" s="56" t="s">
+        <v>53</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C78" s="55">
+      <c r="C78" s="58">
         <v>0.92200000000000004</v>
       </c>
-      <c r="D78" s="28">
+      <c r="D78" s="25">
         <v>0.98499999999999999</v>
       </c>
-      <c r="E78" s="28">
+      <c r="E78" s="25">
         <v>0.90300000000000002</v>
       </c>
-      <c r="F78" s="29">
+      <c r="F78" s="26">
         <v>0.94199999999999995</v>
       </c>
-      <c r="G78" s="55">
+      <c r="G78" s="58">
         <v>0.78600000000000003</v>
       </c>
-      <c r="H78" s="28">
+      <c r="H78" s="25">
         <v>0.84699999999999998</v>
       </c>
-      <c r="I78" s="28">
+      <c r="I78" s="25">
         <v>0.86399999999999999</v>
       </c>
-      <c r="J78" s="29">
+      <c r="J78" s="26">
         <v>0.85599999999999998</v>
       </c>
-      <c r="K78" s="55">
+      <c r="K78" s="58">
         <v>0.84</v>
       </c>
-      <c r="L78" s="28">
+      <c r="L78" s="25">
         <v>0.79600000000000004</v>
       </c>
-      <c r="M78" s="28">
+      <c r="M78" s="25">
         <v>0.88400000000000001</v>
       </c>
-      <c r="N78" s="32">
+      <c r="N78" s="29">
         <v>0.83799999999999997</v>
       </c>
-      <c r="P78" s="62"/>
-      <c r="Q78" s="63"/>
-      <c r="R78" s="63"/>
-      <c r="S78" s="63"/>
-      <c r="T78" s="63"/>
-      <c r="U78" s="63"/>
-      <c r="V78" s="64"/>
+      <c r="P78" s="65"/>
+      <c r="Q78" s="66"/>
+      <c r="R78" s="66"/>
+      <c r="S78" s="66"/>
+      <c r="T78" s="66"/>
+      <c r="U78" s="66"/>
+      <c r="V78" s="67"/>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A79" s="53"/>
+      <c r="A79" s="56"/>
       <c r="B79" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="56"/>
-      <c r="D79" s="28">
+      <c r="C79" s="59"/>
+      <c r="D79" s="25">
         <v>0.92900000000000005</v>
       </c>
-      <c r="E79" s="28">
+      <c r="E79" s="25">
         <v>0.95499999999999996</v>
       </c>
-      <c r="F79" s="29">
+      <c r="F79" s="26">
         <v>0.94199999999999995</v>
       </c>
-      <c r="G79" s="56"/>
-      <c r="H79" s="28">
+      <c r="G79" s="59"/>
+      <c r="H79" s="25">
         <v>0.77100000000000002</v>
       </c>
-      <c r="I79" s="28">
+      <c r="I79" s="25">
         <v>0.97399999999999998</v>
       </c>
-      <c r="J79" s="29">
+      <c r="J79" s="26">
         <v>0.86099999999999999</v>
       </c>
-      <c r="K79" s="56"/>
-      <c r="L79" s="28">
+      <c r="K79" s="59"/>
+      <c r="L79" s="25">
         <v>0.94899999999999995</v>
       </c>
-      <c r="M79" s="28">
+      <c r="M79" s="25">
         <v>0.94899999999999995</v>
       </c>
-      <c r="N79" s="32">
+      <c r="N79" s="29">
         <v>0.94899999999999995</v>
       </c>
-      <c r="P79" s="62"/>
-      <c r="Q79" s="63"/>
-      <c r="R79" s="63"/>
-      <c r="S79" s="63"/>
-      <c r="T79" s="63"/>
-      <c r="U79" s="63"/>
-      <c r="V79" s="64"/>
+      <c r="P79" s="65"/>
+      <c r="Q79" s="66"/>
+      <c r="R79" s="66"/>
+      <c r="S79" s="66"/>
+      <c r="T79" s="66"/>
+      <c r="U79" s="66"/>
+      <c r="V79" s="67"/>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A80" s="53"/>
+      <c r="A80" s="56"/>
       <c r="B80" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C80" s="57"/>
-      <c r="D80" s="30">
+      <c r="C80" s="60"/>
+      <c r="D80" s="27">
         <v>0.82699999999999996</v>
       </c>
-      <c r="E80" s="30">
+      <c r="E80" s="27">
         <v>0.89900000000000002</v>
       </c>
-      <c r="F80" s="31">
+      <c r="F80" s="28">
         <v>0.86199999999999999</v>
       </c>
-      <c r="G80" s="57"/>
-      <c r="H80" s="30">
+      <c r="G80" s="60"/>
+      <c r="H80" s="27">
         <v>0.748</v>
       </c>
-      <c r="I80" s="30">
+      <c r="I80" s="27">
         <v>0.95</v>
       </c>
-      <c r="J80" s="31">
+      <c r="J80" s="28">
         <v>0.83699999999999997</v>
       </c>
-      <c r="K80" s="57"/>
-      <c r="L80" s="30">
+      <c r="K80" s="60"/>
+      <c r="L80" s="27">
         <v>0.746</v>
       </c>
-      <c r="M80" s="30">
+      <c r="M80" s="27">
         <v>0.96699999999999997</v>
       </c>
-      <c r="N80" s="33">
+      <c r="N80" s="30">
         <v>0.83799999999999997</v>
       </c>
-      <c r="P80" s="65"/>
-      <c r="Q80" s="66"/>
-      <c r="R80" s="66"/>
-      <c r="S80" s="66"/>
-      <c r="T80" s="66"/>
-      <c r="U80" s="66"/>
-      <c r="V80" s="67"/>
+      <c r="P80" s="68"/>
+      <c r="Q80" s="69"/>
+      <c r="R80" s="69"/>
+      <c r="S80" s="69"/>
+      <c r="T80" s="69"/>
+      <c r="U80" s="69"/>
+      <c r="V80" s="70"/>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N86" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="O86" s="60"/>
-      <c r="P86" s="60"/>
-      <c r="Q86" s="60"/>
-      <c r="R86" s="60"/>
-      <c r="S86" s="60"/>
-      <c r="T86" s="60"/>
-      <c r="U86" s="61"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N86" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="O86" s="77"/>
+      <c r="P86" s="77"/>
+      <c r="Q86" s="77"/>
+      <c r="R86" s="77"/>
+      <c r="S86" s="77"/>
+      <c r="T86" s="77"/>
+      <c r="U86" s="78"/>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N87" s="62"/>
-      <c r="O87" s="63"/>
-      <c r="P87" s="63"/>
-      <c r="Q87" s="63"/>
-      <c r="R87" s="63"/>
-      <c r="S87" s="63"/>
-      <c r="T87" s="63"/>
-      <c r="U87" s="64"/>
+      <c r="N87" s="79"/>
+      <c r="O87" s="80"/>
+      <c r="P87" s="80"/>
+      <c r="Q87" s="80"/>
+      <c r="R87" s="80"/>
+      <c r="S87" s="80"/>
+      <c r="T87" s="80"/>
+      <c r="U87" s="81"/>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="N88" s="62"/>
-      <c r="O88" s="63"/>
-      <c r="P88" s="63"/>
-      <c r="Q88" s="63"/>
-      <c r="R88" s="63"/>
-      <c r="S88" s="63"/>
-      <c r="T88" s="63"/>
-      <c r="U88" s="64"/>
+        <v>59</v>
+      </c>
+      <c r="N88" s="79"/>
+      <c r="O88" s="80"/>
+      <c r="P88" s="80"/>
+      <c r="Q88" s="80"/>
+      <c r="R88" s="80"/>
+      <c r="S88" s="80"/>
+      <c r="T88" s="80"/>
+      <c r="U88" s="81"/>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>71</v>
-      </c>
-      <c r="N89" s="62"/>
-      <c r="O89" s="63"/>
-      <c r="P89" s="63"/>
-      <c r="Q89" s="63"/>
-      <c r="R89" s="63"/>
-      <c r="S89" s="63"/>
-      <c r="T89" s="63"/>
-      <c r="U89" s="64"/>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N90" s="62"/>
-      <c r="O90" s="63"/>
-      <c r="P90" s="63"/>
-      <c r="Q90" s="63"/>
-      <c r="R90" s="63"/>
-      <c r="S90" s="63"/>
-      <c r="T90" s="63"/>
-      <c r="U90" s="64"/>
+        <v>69</v>
+      </c>
+      <c r="N89" s="79"/>
+      <c r="O89" s="80"/>
+      <c r="P89" s="80"/>
+      <c r="Q89" s="80"/>
+      <c r="R89" s="80"/>
+      <c r="S89" s="80"/>
+      <c r="T89" s="80"/>
+      <c r="U89" s="81"/>
+    </row>
+    <row r="90" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G90" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="H90" s="53"/>
+      <c r="I90" s="53"/>
+      <c r="J90" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="K90" s="53"/>
+      <c r="L90" s="53"/>
+      <c r="N90" s="79"/>
+      <c r="O90" s="80"/>
+      <c r="P90" s="80"/>
+      <c r="Q90" s="80"/>
+      <c r="R90" s="80"/>
+      <c r="S90" s="80"/>
+      <c r="T90" s="80"/>
+      <c r="U90" s="81"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D91" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D91" s="4" t="s">
+      <c r="E91" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F91" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="G91" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I91" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J91" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K91" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L91" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N91" s="79"/>
+      <c r="O91" s="80"/>
+      <c r="P91" s="80"/>
+      <c r="Q91" s="80"/>
+      <c r="R91" s="80"/>
+      <c r="S91" s="80"/>
+      <c r="T91" s="80"/>
+      <c r="U91" s="81"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A92" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="F91" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="N91" s="62"/>
-      <c r="O91" s="63"/>
-      <c r="P91" s="63"/>
-      <c r="Q91" s="63"/>
-      <c r="R91" s="63"/>
-      <c r="S91" s="63"/>
-      <c r="T91" s="63"/>
-      <c r="U91" s="64"/>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B92" s="20">
+      <c r="B92" s="50">
+        <f>C92/187306</f>
+        <v>2.2839631405294009E-2</v>
+      </c>
+      <c r="C92" s="20">
+        <v>4278</v>
+      </c>
+      <c r="D92" s="6">
         <v>1941</v>
       </c>
-      <c r="C92" s="6">
+      <c r="E92" s="6">
         <v>419</v>
       </c>
-      <c r="D92" s="6">
+      <c r="F92" s="6">
         <v>1918</v>
       </c>
-      <c r="E92" s="6">
-        <v>4278</v>
-      </c>
-      <c r="F92" s="23">
-        <f>E92/187306</f>
-        <v>2.2839631405294009E-2</v>
-      </c>
-      <c r="N92" s="62"/>
-      <c r="O92" s="63"/>
-      <c r="P92" s="63"/>
-      <c r="Q92" s="63"/>
-      <c r="R92" s="63"/>
-      <c r="S92" s="63"/>
-      <c r="T92" s="63"/>
-      <c r="U92" s="64"/>
+      <c r="G92" s="20">
+        <f>D92/C92</f>
+        <v>0.45371669004207571</v>
+      </c>
+      <c r="H92" s="6">
+        <f>E92/C92</f>
+        <v>9.7942964001870039E-2</v>
+      </c>
+      <c r="I92" s="6">
+        <f>F92/C92</f>
+        <v>0.44834034595605421</v>
+      </c>
+      <c r="J92" s="20">
+        <f>D92/(889009*0.387)</f>
+        <v>5.6416795285188252E-3</v>
+      </c>
+      <c r="K92" s="6">
+        <f>E92/(889009*0.063)</f>
+        <v>7.4811319691855203E-3</v>
+      </c>
+      <c r="L92" s="7">
+        <f>F92/(889009*0.547)</f>
+        <v>3.9441653993122095E-3</v>
+      </c>
+      <c r="N92" s="79"/>
+      <c r="O92" s="80"/>
+      <c r="P92" s="80"/>
+      <c r="Q92" s="80"/>
+      <c r="R92" s="80"/>
+      <c r="S92" s="80"/>
+      <c r="T92" s="80"/>
+      <c r="U92" s="81"/>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B93" s="51">
+        <f>C93/(21600*4)</f>
+        <v>2.3194444444444445E-2</v>
+      </c>
+      <c r="C93" s="22">
+        <v>2004</v>
+      </c>
+      <c r="D93">
+        <v>639</v>
+      </c>
+      <c r="E93">
+        <v>111</v>
+      </c>
+      <c r="F93">
+        <v>1254</v>
+      </c>
+      <c r="G93" s="22">
+        <f>D93/C93</f>
+        <v>0.31886227544910178</v>
+      </c>
+      <c r="H93">
+        <f>E93/C93</f>
+        <v>5.5389221556886227E-2</v>
+      </c>
+      <c r="I93">
+        <f>F93/C93</f>
+        <v>0.62574850299401197</v>
+      </c>
+      <c r="J93" s="22">
+        <f>D93/(86400*0.327)</f>
+        <v>2.261722731906218E-2</v>
+      </c>
+      <c r="K93">
+        <f>E93/(86400*0.061)</f>
+        <v>2.1061020036429873E-2</v>
+      </c>
+      <c r="L93" s="8">
+        <f>F93/(86400*0.436)</f>
+        <v>3.3288735983690108E-2</v>
+      </c>
+      <c r="N93" s="79"/>
+      <c r="O93" s="80"/>
+      <c r="P93" s="80"/>
+      <c r="Q93" s="80"/>
+      <c r="R93" s="80"/>
+      <c r="S93" s="80"/>
+      <c r="T93" s="80"/>
+      <c r="U93" s="81"/>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A94" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B93" s="22">
-        <v>639</v>
-      </c>
-      <c r="C93">
-        <v>111</v>
-      </c>
-      <c r="D93">
-        <v>1254</v>
-      </c>
-      <c r="E93">
-        <v>2004</v>
-      </c>
-      <c r="F93" s="24">
-        <f>E93/(21600*4)</f>
-        <v>2.3194444444444445E-2</v>
-      </c>
-      <c r="N93" s="62"/>
-      <c r="O93" s="63"/>
-      <c r="P93" s="63"/>
-      <c r="Q93" s="63"/>
-      <c r="R93" s="63"/>
-      <c r="S93" s="63"/>
-      <c r="T93" s="63"/>
-      <c r="U93" s="64"/>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B94" s="21">
+      <c r="B94" s="52">
+        <f>C94/(21600*4)</f>
+        <v>3.033564814814815E-2</v>
+      </c>
+      <c r="C94" s="21">
+        <v>2621</v>
+      </c>
+      <c r="D94" s="10">
         <v>1323</v>
       </c>
-      <c r="C94" s="10">
+      <c r="E94" s="10">
         <v>72</v>
       </c>
-      <c r="D94" s="10">
+      <c r="F94" s="10">
         <v>1226</v>
       </c>
-      <c r="E94" s="10">
-        <v>2621</v>
-      </c>
-      <c r="F94" s="25">
-        <f>E94/(21600*4)</f>
-        <v>3.033564814814815E-2</v>
-      </c>
-      <c r="N94" s="62"/>
-      <c r="O94" s="63"/>
-      <c r="P94" s="63"/>
-      <c r="Q94" s="63"/>
-      <c r="R94" s="63"/>
-      <c r="S94" s="63"/>
-      <c r="T94" s="63"/>
-      <c r="U94" s="64"/>
+      <c r="G94" s="21">
+        <f>D94/C94</f>
+        <v>0.50476917207172833</v>
+      </c>
+      <c r="H94" s="10">
+        <f>E94/C94</f>
+        <v>2.7470431133155285E-2</v>
+      </c>
+      <c r="I94" s="10">
+        <f>F94/C94</f>
+        <v>0.46776039679511638</v>
+      </c>
+      <c r="J94" s="21">
+        <f>D94/(86400*0.413)</f>
+        <v>3.7076271186440683E-2</v>
+      </c>
+      <c r="K94" s="10">
+        <f>E94/(86400*0.06)</f>
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="L94" s="11">
+        <f>F94/(86400*0.401)</f>
+        <v>3.538607185739355E-2</v>
+      </c>
+      <c r="N94" s="79"/>
+      <c r="O94" s="80"/>
+      <c r="P94" s="80"/>
+      <c r="Q94" s="80"/>
+      <c r="R94" s="80"/>
+      <c r="S94" s="80"/>
+      <c r="T94" s="80"/>
+      <c r="U94" s="81"/>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N95" s="62"/>
-      <c r="O95" s="63"/>
-      <c r="P95" s="63"/>
-      <c r="Q95" s="63"/>
-      <c r="R95" s="63"/>
-      <c r="S95" s="63"/>
-      <c r="T95" s="63"/>
-      <c r="U95" s="64"/>
+      <c r="N95" s="79"/>
+      <c r="O95" s="80"/>
+      <c r="P95" s="80"/>
+      <c r="Q95" s="80"/>
+      <c r="R95" s="80"/>
+      <c r="S95" s="80"/>
+      <c r="T95" s="80"/>
+      <c r="U95" s="81"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N96" s="62"/>
-      <c r="O96" s="63"/>
-      <c r="P96" s="63"/>
-      <c r="Q96" s="63"/>
-      <c r="R96" s="63"/>
-      <c r="S96" s="63"/>
-      <c r="T96" s="63"/>
-      <c r="U96" s="64"/>
+        <v>68</v>
+      </c>
+      <c r="N96" s="79"/>
+      <c r="O96" s="80"/>
+      <c r="P96" s="80"/>
+      <c r="Q96" s="80"/>
+      <c r="R96" s="80"/>
+      <c r="S96" s="80"/>
+      <c r="T96" s="80"/>
+      <c r="U96" s="81"/>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>59</v>
-      </c>
-      <c r="N97" s="62"/>
-      <c r="O97" s="63"/>
-      <c r="P97" s="63"/>
-      <c r="Q97" s="63"/>
-      <c r="R97" s="63"/>
-      <c r="S97" s="63"/>
-      <c r="T97" s="63"/>
-      <c r="U97" s="64"/>
+        <v>58</v>
+      </c>
+      <c r="N97" s="79"/>
+      <c r="O97" s="80"/>
+      <c r="P97" s="80"/>
+      <c r="Q97" s="80"/>
+      <c r="R97" s="80"/>
+      <c r="S97" s="80"/>
+      <c r="T97" s="80"/>
+      <c r="U97" s="81"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>77</v>
-      </c>
-      <c r="N98" s="62"/>
-      <c r="O98" s="63"/>
-      <c r="P98" s="63"/>
-      <c r="Q98" s="63"/>
-      <c r="R98" s="63"/>
-      <c r="S98" s="63"/>
-      <c r="T98" s="63"/>
-      <c r="U98" s="64"/>
+        <v>75</v>
+      </c>
+      <c r="N98" s="79"/>
+      <c r="O98" s="80"/>
+      <c r="P98" s="80"/>
+      <c r="Q98" s="80"/>
+      <c r="R98" s="80"/>
+      <c r="S98" s="80"/>
+      <c r="T98" s="80"/>
+      <c r="U98" s="81"/>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C99" s="54" t="s">
+      <c r="C99" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D99" s="57"/>
+      <c r="E99" s="57"/>
+      <c r="F99" s="57"/>
+      <c r="G99" s="57"/>
+      <c r="H99" s="57"/>
+      <c r="I99" s="57"/>
+      <c r="J99" s="57"/>
+      <c r="K99" s="57"/>
+      <c r="N99" s="79"/>
+      <c r="O99" s="80"/>
+      <c r="P99" s="80"/>
+      <c r="Q99" s="80"/>
+      <c r="R99" s="80"/>
+      <c r="S99" s="80"/>
+      <c r="T99" s="80"/>
+      <c r="U99" s="81"/>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C100" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="55"/>
+      <c r="E100" s="55"/>
+      <c r="F100" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="55"/>
+      <c r="H100" s="55"/>
+      <c r="I100" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="55"/>
+      <c r="K100" s="55"/>
+      <c r="N100" s="79"/>
+      <c r="O100" s="80"/>
+      <c r="P100" s="80"/>
+      <c r="Q100" s="80"/>
+      <c r="R100" s="80"/>
+      <c r="S100" s="80"/>
+      <c r="T100" s="80"/>
+      <c r="U100" s="81"/>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B101" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="D99" s="54"/>
-      <c r="E99" s="54"/>
-      <c r="F99" s="54"/>
-      <c r="G99" s="54"/>
-      <c r="H99" s="54"/>
-      <c r="I99" s="54"/>
-      <c r="J99" s="54"/>
-      <c r="K99" s="54"/>
-      <c r="N99" s="62"/>
-      <c r="O99" s="63"/>
-      <c r="P99" s="63"/>
-      <c r="Q99" s="63"/>
-      <c r="R99" s="63"/>
-      <c r="S99" s="63"/>
-      <c r="T99" s="63"/>
-      <c r="U99" s="64"/>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C100" s="52" t="s">
+      <c r="C101" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D100" s="52"/>
-      <c r="E100" s="52"/>
-      <c r="F100" s="52" t="s">
+      <c r="E101" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G100" s="52"/>
-      <c r="H100" s="52"/>
-      <c r="I100" s="52" t="s">
+      <c r="F101" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J100" s="52"/>
-      <c r="K100" s="52"/>
-      <c r="N100" s="62"/>
-      <c r="O100" s="63"/>
-      <c r="P100" s="63"/>
-      <c r="Q100" s="63"/>
-      <c r="R100" s="63"/>
-      <c r="S100" s="63"/>
-      <c r="T100" s="63"/>
-      <c r="U100" s="64"/>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B101" s="48" t="s">
+      <c r="G101" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="J101" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="K101" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="N101" s="79"/>
+      <c r="O101" s="80"/>
+      <c r="P101" s="80"/>
+      <c r="Q101" s="80"/>
+      <c r="R101" s="80"/>
+      <c r="S101" s="80"/>
+      <c r="T101" s="80"/>
+      <c r="U101" s="81"/>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A102" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="C101" s="47" t="s">
+      <c r="B102" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D102" s="6">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="E102" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F102" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="G102" s="6">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="H102" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I102" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="J102" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="K102" s="7">
+        <v>0.158</v>
+      </c>
+      <c r="N102" s="79"/>
+      <c r="O102" s="80"/>
+      <c r="P102" s="80"/>
+      <c r="Q102" s="80"/>
+      <c r="R102" s="80"/>
+      <c r="S102" s="80"/>
+      <c r="T102" s="80"/>
+      <c r="U102" s="81"/>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A103" s="54"/>
+      <c r="B103" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D101" s="47" t="s">
+      <c r="C103" s="22">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E103" s="8">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F103" s="22">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H103" s="8">
+        <v>6.2E-2</v>
+      </c>
+      <c r="I103" s="22">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K103" s="8">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="N103" s="79"/>
+      <c r="O103" s="80"/>
+      <c r="P103" s="80"/>
+      <c r="Q103" s="80"/>
+      <c r="R103" s="80"/>
+      <c r="S103" s="80"/>
+      <c r="T103" s="80"/>
+      <c r="U103" s="81"/>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A104" s="54"/>
+      <c r="B104" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="E101" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="F101" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="I101" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="K101" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="N101" s="62"/>
-      <c r="O101" s="63"/>
-      <c r="P101" s="63"/>
-      <c r="Q101" s="63"/>
-      <c r="R101" s="63"/>
-      <c r="S101" s="63"/>
-      <c r="T101" s="63"/>
-      <c r="U101" s="64"/>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A102" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="B102" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C102" s="20">
-        <v>0</v>
-      </c>
-      <c r="D102" s="6">
-        <v>6.2E-2</v>
-      </c>
-      <c r="E102" s="7">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="F102" s="20">
-        <v>0</v>
-      </c>
-      <c r="G102" s="6">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="H102" s="7">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="I102" s="20">
-        <v>0</v>
-      </c>
-      <c r="J102" s="6">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="K102" s="7">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="N102" s="62"/>
-      <c r="O102" s="63"/>
-      <c r="P102" s="63"/>
-      <c r="Q102" s="63"/>
-      <c r="R102" s="63"/>
-      <c r="S102" s="63"/>
-      <c r="T102" s="63"/>
-      <c r="U102" s="64"/>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A103" s="51"/>
-      <c r="B103" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C103" s="22">
+      <c r="C104" s="21">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D104" s="10">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E104" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F104" s="21">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G104" s="10">
         <v>0.56200000000000006</v>
       </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-      <c r="E103" s="8">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="F103" s="22">
+      <c r="H104" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="I104" s="21">
+        <v>0.124</v>
+      </c>
+      <c r="J104" s="10">
         <v>0.58199999999999996</v>
       </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103" s="8">
-        <v>0.124</v>
-      </c>
-      <c r="I103" s="22">
-        <v>4.7E-2</v>
-      </c>
-      <c r="J103">
-        <v>0</v>
-      </c>
-      <c r="K103" s="8">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="N103" s="62"/>
-      <c r="O103" s="63"/>
-      <c r="P103" s="63"/>
-      <c r="Q103" s="63"/>
-      <c r="R103" s="63"/>
-      <c r="S103" s="63"/>
-      <c r="T103" s="63"/>
-      <c r="U103" s="64"/>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A104" s="51"/>
-      <c r="B104" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="C104" s="21">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="D104" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="E104" s="11">
-        <v>0</v>
-      </c>
-      <c r="F104" s="21">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="G104" s="10">
-        <v>0.158</v>
-      </c>
-      <c r="H104" s="11">
-        <v>0</v>
-      </c>
-      <c r="I104" s="21">
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="J104" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K104" s="11">
-        <v>0</v>
-      </c>
-      <c r="N104" s="65"/>
-      <c r="O104" s="66"/>
-      <c r="P104" s="66"/>
-      <c r="Q104" s="66"/>
-      <c r="R104" s="66"/>
-      <c r="S104" s="66"/>
-      <c r="T104" s="66"/>
-      <c r="U104" s="67"/>
+      <c r="K104" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="N104" s="82"/>
+      <c r="O104" s="83"/>
+      <c r="P104" s="83"/>
+      <c r="Q104" s="83"/>
+      <c r="R104" s="83"/>
+      <c r="S104" s="83"/>
+      <c r="T104" s="83"/>
+      <c r="U104" s="84"/>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C109" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D109" s="55"/>
+      <c r="E109" s="55"/>
+      <c r="F109" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="G109" s="55"/>
+      <c r="H109" s="55"/>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B110" s="45" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C109" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="D109" s="52"/>
-      <c r="E109" s="52"/>
-      <c r="F109" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="G109" s="52"/>
-      <c r="H109" s="52"/>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B110" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="C110" s="47" t="s">
+      <c r="C110" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D110" s="47" t="s">
+      <c r="D110" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E110" s="47" t="s">
+      <c r="E110" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F110" s="47" t="s">
+      <c r="F110" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="G110" s="47" t="s">
+      <c r="G110" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="H110" s="47" t="s">
+      <c r="H110" s="44" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A111" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="B111" s="49" t="s">
+      <c r="A111" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B111" s="46" t="s">
         <v>3</v>
       </c>
       <c r="C111" s="20">
+        <v>30069</v>
+      </c>
+      <c r="D111" s="6">
+        <v>1348</v>
+      </c>
+      <c r="E111" s="7">
+        <v>240</v>
+      </c>
+      <c r="F111" s="20">
+        <v>30387</v>
+      </c>
+      <c r="G111" s="6">
+        <v>518</v>
+      </c>
+      <c r="H111" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A112" s="54"/>
+      <c r="B112" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" s="22">
+        <v>1053</v>
+      </c>
+      <c r="D112">
         <v>31957</v>
       </c>
-      <c r="D111" s="6">
+      <c r="E112" s="8">
         <v>664</v>
       </c>
-      <c r="E111" s="7">
-        <v>1053</v>
-      </c>
-      <c r="F111" s="20">
+      <c r="F112" s="22">
+        <v>213</v>
+      </c>
+      <c r="G112">
         <v>34800</v>
       </c>
-      <c r="G111" s="6">
+      <c r="H112" s="8">
         <v>302</v>
       </c>
-      <c r="H111" s="7">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A112" s="51"/>
-      <c r="B112" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C112" s="22">
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="54"/>
+      <c r="B113" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113" s="21">
+        <v>484</v>
+      </c>
+      <c r="D113" s="10">
         <v>393</v>
       </c>
-      <c r="D112">
+      <c r="E113" s="11">
         <v>6277</v>
       </c>
-      <c r="E112" s="8">
-        <v>484</v>
-      </c>
-      <c r="F112" s="22">
-        <v>0</v>
-      </c>
-      <c r="G112">
-        <v>5982</v>
-      </c>
-      <c r="H112" s="8">
+      <c r="F113" s="21">
         <v>283</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="51"/>
-      <c r="B113" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="C113" s="21">
-        <v>1348</v>
-      </c>
-      <c r="D113" s="10">
-        <v>240</v>
-      </c>
-      <c r="E113" s="11">
-        <v>30069</v>
-      </c>
-      <c r="F113" s="21">
-        <v>518</v>
       </c>
       <c r="G113" s="10">
         <v>0</v>
       </c>
       <c r="H113" s="11">
-        <v>30387</v>
-      </c>
+        <v>5982</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J116" s="3"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J117" s="49"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J118" s="49"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J119" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="64">
     <mergeCell ref="N86:U104"/>
     <mergeCell ref="P49:W60"/>
     <mergeCell ref="P31:Y42"/>
@@ -3934,9 +4101,6 @@
     <mergeCell ref="G73:J73"/>
     <mergeCell ref="K73:N73"/>
     <mergeCell ref="P73:V80"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="F109:H109"/>
     <mergeCell ref="A111:A113"/>
     <mergeCell ref="A75:A77"/>
     <mergeCell ref="A78:A80"/>
@@ -3950,6 +4114,11 @@
     <mergeCell ref="C75:C77"/>
     <mergeCell ref="G75:G77"/>
     <mergeCell ref="K75:K77"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="J90:L90"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="F109:H109"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3961,7 +4130,7 @@
   <dimension ref="A2:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3980,21 +4149,21 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94" t="s">
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94" t="s">
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
@@ -4027,7 +4196,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="94" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -4062,7 +4231,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="92"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
@@ -4095,7 +4264,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="93"/>
+      <c r="A10" s="96"/>
       <c r="B10" s="9" t="s">
         <v>4</v>
       </c>
@@ -4128,7 +4297,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="94" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -4163,7 +4332,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="92"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
@@ -4196,7 +4365,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="93"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="9" t="s">
         <v>4</v>
       </c>
@@ -4229,7 +4398,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="94" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -4264,7 +4433,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="92"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
@@ -4297,7 +4466,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
+      <c r="A16" s="95"/>
       <c r="B16" s="3" t="s">
         <v>3</v>
       </c>
@@ -4330,7 +4499,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="93"/>
+      <c r="A17" s="96"/>
       <c r="B17" s="9" t="s">
         <v>4</v>
       </c>
@@ -4373,4 +4542,301 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6660D7C2-95DF-4260-8A1F-9AA3431D7C82}">
+  <dimension ref="A2:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C2" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C3" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="6">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E5" s="7">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="54"/>
+      <c r="B6" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.124</v>
+      </c>
+      <c r="I6" s="22">
+        <v>4.7E-2</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="8">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="54"/>
+      <c r="B7" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="21">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.158</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="21">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="J7" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="20">
+        <v>31957</v>
+      </c>
+      <c r="D12" s="6">
+        <v>664</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1053</v>
+      </c>
+      <c r="F12" s="20">
+        <v>34800</v>
+      </c>
+      <c r="G12" s="6">
+        <v>302</v>
+      </c>
+      <c r="H12" s="7">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="54"/>
+      <c r="B13" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="22">
+        <v>393</v>
+      </c>
+      <c r="D13">
+        <v>6277</v>
+      </c>
+      <c r="E13" s="8">
+        <v>484</v>
+      </c>
+      <c r="F13" s="22">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>5982</v>
+      </c>
+      <c r="H13" s="8">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="54"/>
+      <c r="B14" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="21">
+        <v>1348</v>
+      </c>
+      <c r="D14" s="10">
+        <v>240</v>
+      </c>
+      <c r="E14" s="11">
+        <v>30069</v>
+      </c>
+      <c r="F14" s="21">
+        <v>518</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
+        <v>30387</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="A5:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>